--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$U$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="581">
   <si>
     <t>S No</t>
   </si>
@@ -3502,7 +3502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3537,7 +3537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15586,12 +15586,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="Q37" sqref="Q37"/>
+      <selection pane="topRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15608,15 +15608,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="17" width="11.28515625" style="77" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="77" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="77" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="18" width="11.28515625" style="77" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="77" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="77" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:20" ht="13.5" thickBot="1">
+    <row r="1" spans="1:21" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:21" ht="13.5" thickBot="1">
       <c r="B2" s="220" t="s">
         <v>17</v>
       </c>
@@ -15624,29 +15624,29 @@
       <c r="D2" s="222"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="B3" s="223" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="224"/>
       <c r="D3" s="135">
-        <f>SUM(I8:Q8)</f>
-        <v>27</v>
+        <f>SUM(I8:R8)</f>
+        <v>30</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" thickBot="1">
+    <row r="4" spans="1:21" ht="13.5" thickBot="1">
       <c r="B4" s="225" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="226"/>
       <c r="D4" s="137">
-        <f>T39</f>
-        <v>52.107279693486589</v>
+        <f>U39</f>
+        <v>50</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:20" ht="15">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="227" t="s">
         <v>520</v>
       </c>
@@ -15686,17 +15686,20 @@
       <c r="Q6" s="139">
         <v>42405</v>
       </c>
-      <c r="R6" s="228" t="s">
+      <c r="R6" s="139">
+        <v>42410</v>
+      </c>
+      <c r="S6" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="228" t="s">
+      <c r="T6" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="219" t="s">
+      <c r="U6" s="219" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="227"/>
       <c r="B7" s="227"/>
       <c r="C7" s="227"/>
@@ -15736,11 +15739,14 @@
       <c r="Q7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="R7" s="228"/>
+      <c r="R7" s="142" t="s">
+        <v>521</v>
+      </c>
       <c r="S7" s="228"/>
-      <c r="T7" s="219"/>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="T7" s="228"/>
+      <c r="U7" s="219"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="227"/>
       <c r="B8" s="227"/>
       <c r="C8" s="227"/>
@@ -15780,11 +15786,14 @@
       <c r="Q8" s="159">
         <v>3</v>
       </c>
-      <c r="R8" s="228"/>
+      <c r="R8" s="159">
+        <v>3</v>
+      </c>
       <c r="S8" s="228"/>
-      <c r="T8" s="219"/>
-    </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1">
+      <c r="T8" s="228"/>
+      <c r="U8" s="219"/>
+    </row>
+    <row r="9" spans="1:21" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15836,11 +15845,14 @@
       <c r="Q9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="R9" s="228"/>
+      <c r="R9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="S9" s="228"/>
-      <c r="T9" s="219"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1">
+      <c r="T9" s="228"/>
+      <c r="U9" s="219"/>
+    </row>
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15884,20 +15896,23 @@
       <c r="Q10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R10" s="143">
-        <f t="shared" ref="R10:R38" si="0">COUNTIF(I10:Q10,"P")</f>
-        <v>8</v>
-      </c>
-      <c r="S10" s="146">
-        <f t="shared" ref="S10:S38" si="1">COUNTBLANK(I10:Q10)</f>
+      <c r="R10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="143">
+        <f t="shared" ref="S10:S38" si="0">COUNTIF(I10:R10,"P")</f>
+        <v>9</v>
+      </c>
+      <c r="T10" s="146">
+        <f t="shared" ref="T10:T38" si="1">COUNTBLANK(I10:R10)</f>
         <v>1</v>
       </c>
-      <c r="T10" s="156">
-        <f>R10*100/SUM(R10:S10)</f>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1">
+      <c r="U10" s="156">
+        <f>S10*100/SUM(S10:T10)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -15943,20 +15958,23 @@
       <c r="Q11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R11" s="143">
+      <c r="R11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S11" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S11" s="146">
+        <v>10</v>
+      </c>
+      <c r="T11" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11" s="156">
-        <f>R11*100/SUM(R11:S11)</f>
+      <c r="U11" s="156">
+        <f>S11*100/SUM(S11:T11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16002,20 +16020,23 @@
       <c r="Q12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="143">
+      <c r="R12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S12" s="146">
+        <v>10</v>
+      </c>
+      <c r="T12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T12" s="156">
-        <f t="shared" ref="T12:T38" si="2">R12*100/SUM(R12:S12)</f>
+      <c r="U12" s="156">
+        <f t="shared" ref="U12:U38" si="2">S12*100/SUM(S12:T12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16059,20 +16080,23 @@
       <c r="Q13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R13" s="143">
+      <c r="R13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S13" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S13" s="146">
+        <v>9</v>
+      </c>
+      <c r="T13" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T13" s="156">
+      <c r="U13" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16102,20 +16126,21 @@
       <c r="O14" s="143"/>
       <c r="P14" s="143"/>
       <c r="Q14" s="143"/>
-      <c r="R14" s="143">
+      <c r="R14" s="143"/>
+      <c r="S14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S14" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="T14" s="156">
+      <c r="T14" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U14" s="156">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16143,20 +16168,21 @@
       <c r="O15" s="143"/>
       <c r="P15" s="143"/>
       <c r="Q15" s="143"/>
-      <c r="R15" s="143">
+      <c r="R15" s="143"/>
+      <c r="S15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T15" s="156">
+      <c r="T15" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="174" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:21" s="174" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16200,20 +16226,23 @@
       <c r="Q16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="R16" s="143">
+      <c r="R16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S16" s="172">
+        <v>9</v>
+      </c>
+      <c r="T16" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T16" s="173">
+      <c r="U16" s="173">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16257,20 +16286,21 @@
       <c r="Q17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R17" s="143">
+      <c r="R17" s="143"/>
+      <c r="S17" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S17" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T17" s="156">
+      <c r="T17" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U17" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16314,20 +16344,21 @@
       <c r="Q18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R18" s="143">
+      <c r="R18" s="143"/>
+      <c r="S18" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S18" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T18" s="156">
+      <c r="T18" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U18" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16373,20 +16404,23 @@
       <c r="Q19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R19" s="143">
+      <c r="R19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S19" s="146">
+        <v>10</v>
+      </c>
+      <c r="T19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19" s="156">
+      <c r="U19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:21" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16414,20 +16448,21 @@
       <c r="O20" s="143"/>
       <c r="P20" s="143"/>
       <c r="Q20" s="143"/>
-      <c r="R20" s="143">
+      <c r="R20" s="143"/>
+      <c r="S20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S20" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T20" s="156">
+      <c r="T20" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" thickBot="1">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16467,20 +16502,23 @@
       <c r="O21" s="143"/>
       <c r="P21" s="143"/>
       <c r="Q21" s="143"/>
-      <c r="R21" s="143">
+      <c r="R21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="S21" s="146">
+        <v>7</v>
+      </c>
+      <c r="T21" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="T21" s="156">
+      <c r="U21" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16508,20 +16546,21 @@
       <c r="O22" s="143"/>
       <c r="P22" s="143"/>
       <c r="Q22" s="143"/>
-      <c r="R22" s="143">
+      <c r="R22" s="143"/>
+      <c r="S22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S22" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T22" s="156">
+      <c r="T22" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16565,20 +16604,23 @@
       <c r="Q23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R23" s="143">
+      <c r="R23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S23" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="S23" s="146">
+        <v>9</v>
+      </c>
+      <c r="T23" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T23" s="156">
+      <c r="U23" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16620,20 +16662,21 @@
       <c r="Q24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R24" s="143">
+      <c r="R24" s="143"/>
+      <c r="S24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S24" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="T24" s="156">
+      <c r="T24" s="146">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="U24" s="156">
         <f t="shared" si="2"/>
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16663,20 +16706,21 @@
       <c r="O25" s="143"/>
       <c r="P25" s="143"/>
       <c r="Q25" s="143"/>
-      <c r="R25" s="143">
+      <c r="R25" s="143"/>
+      <c r="S25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S25" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="T25" s="156">
+      <c r="T25" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U25" s="156">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16706,20 +16750,21 @@
       <c r="O26" s="143"/>
       <c r="P26" s="143"/>
       <c r="Q26" s="143"/>
-      <c r="R26" s="143">
+      <c r="R26" s="143"/>
+      <c r="S26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S26" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="T26" s="156">
+      <c r="T26" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U26" s="156">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -16759,20 +16804,21 @@
       <c r="Q27" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R27" s="143">
+      <c r="R27" s="143"/>
+      <c r="S27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S27" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T27" s="156">
+      <c r="T27" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U27" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -16808,20 +16854,21 @@
       </c>
       <c r="P28" s="143"/>
       <c r="Q28" s="143"/>
-      <c r="R28" s="143">
+      <c r="R28" s="143"/>
+      <c r="S28" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="S28" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="T28" s="156">
+      <c r="T28" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="U28" s="156">
         <f t="shared" si="2"/>
-        <v>44.444444444444443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" thickBot="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -16855,20 +16902,21 @@
       <c r="Q29" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R29" s="143">
+      <c r="R29" s="143"/>
+      <c r="S29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S29" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T29" s="156">
+      <c r="T29" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U29" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -16914,20 +16962,23 @@
       <c r="Q30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R30" s="143">
+      <c r="R30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="S30" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="S30" s="146">
+        <v>10</v>
+      </c>
+      <c r="T30" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30" s="156">
+      <c r="U30" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" thickBot="1">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -16955,20 +17006,21 @@
       <c r="O31" s="143"/>
       <c r="P31" s="143"/>
       <c r="Q31" s="143"/>
-      <c r="R31" s="143">
+      <c r="R31" s="143"/>
+      <c r="S31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S31" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T31" s="156">
+      <c r="T31" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" thickBot="1">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17002,20 +17054,21 @@
       <c r="O32" s="143"/>
       <c r="P32" s="143"/>
       <c r="Q32" s="143"/>
-      <c r="R32" s="143">
+      <c r="R32" s="143"/>
+      <c r="S32" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="S32" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T32" s="156">
+      <c r="T32" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U32" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17053,20 +17106,21 @@
         <v>104</v>
       </c>
       <c r="Q33" s="143"/>
-      <c r="R33" s="143">
+      <c r="R33" s="143"/>
+      <c r="S33" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S33" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="T33" s="156">
+      <c r="T33" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U33" s="156">
         <f t="shared" si="2"/>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17110,20 +17164,21 @@
       <c r="Q34" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R34" s="143">
+      <c r="R34" s="143"/>
+      <c r="S34" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S34" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T34" s="156">
+      <c r="T34" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U34" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17151,20 +17206,21 @@
       <c r="O35" s="143"/>
       <c r="P35" s="143"/>
       <c r="Q35" s="143"/>
-      <c r="R35" s="143">
+      <c r="R35" s="143"/>
+      <c r="S35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T35" s="156">
+      <c r="T35" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17188,20 +17244,21 @@
       <c r="O36" s="143"/>
       <c r="P36" s="143"/>
       <c r="Q36" s="143"/>
-      <c r="R36" s="143">
+      <c r="R36" s="143"/>
+      <c r="S36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S36" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="T36" s="156">
+      <c r="T36" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="U36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" thickBot="1">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17239,20 +17296,21 @@
       <c r="Q37" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="R37" s="143">
+      <c r="R37" s="143"/>
+      <c r="S37" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="S37" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T37" s="156">
+      <c r="T37" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U37" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17280,20 +17338,21 @@
       <c r="O38" s="143"/>
       <c r="P38" s="143"/>
       <c r="Q38" s="143"/>
-      <c r="R38" s="143">
+      <c r="R38" s="143"/>
+      <c r="S38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="S38" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="T38" s="156">
+      <c r="T38" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="U38" s="156">
         <f t="shared" si="2"/>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17332,31 +17391,38 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="149"/>
+      <c r="P39" s="149">
+        <v>12</v>
+      </c>
+      <c r="Q39" s="149">
+        <v>15</v>
+      </c>
       <c r="R39" s="149">
+        <v>9</v>
+      </c>
+      <c r="S39" s="149">
         <f>COUNTIF(I39:J39,"P")</f>
         <v>0</v>
       </c>
-      <c r="S39" s="150">
+      <c r="T39" s="150">
         <f>COUNTBLANK(I39:M39)</f>
         <v>0</v>
       </c>
-      <c r="T39" s="157">
-        <f>AVERAGE(T10:T38)</f>
-        <v>52.107279693486589</v>
+      <c r="U39" s="157">
+        <f>AVERAGE(U10:U38)</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T39"/>
+  <autoFilter ref="A9:U39"/>
   <mergeCells count="7">
-    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="U6:U9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="T6:T9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$U$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$V$39</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="581">
   <si>
     <t>S No</t>
   </si>
@@ -3276,6 +3276,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3309,9 +3372,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3321,67 +3381,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3502,7 +3502,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3537,7 +3537,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3785,18 +3785,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3804,10 +3804,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3816,13 +3816,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3875,22 +3875,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="198" t="s">
+      <c r="X6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="214" t="s">
+      <c r="Y6" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="201" t="s">
+      <c r="Z6" s="184" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3945,16 +3945,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="215"/>
-      <c r="Z7" s="202"/>
+      <c r="X7" s="182"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="185"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4009,9 +4009,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="199"/>
-      <c r="Y8" s="215"/>
-      <c r="Z8" s="202"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="185"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4083,9 +4083,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="216"/>
-      <c r="Z9" s="203"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="201"/>
+      <c r="Z9" s="186"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6758,15 +6758,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="181"/>
-      <c r="B46" s="182"/>
-      <c r="C46" s="208" t="s">
+      <c r="A46" s="202"/>
+      <c r="B46" s="203"/>
+      <c r="C46" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="209"/>
-      <c r="E46" s="209"/>
-      <c r="F46" s="209"/>
-      <c r="G46" s="210"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="195"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6831,25 +6831,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="192" t="s">
+      <c r="X46" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="204"/>
-      <c r="Z46" s="206">
+      <c r="Y46" s="188"/>
+      <c r="Z46" s="191">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="183"/>
-      <c r="B47" s="184"/>
-      <c r="C47" s="211" t="s">
+      <c r="A47" s="204"/>
+      <c r="B47" s="205"/>
+      <c r="C47" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="212"/>
-      <c r="E47" s="212"/>
-      <c r="F47" s="212"/>
-      <c r="G47" s="213"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="198"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6914,9 +6914,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="196"/>
-      <c r="Y47" s="205"/>
-      <c r="Z47" s="207"/>
+      <c r="X47" s="189"/>
+      <c r="Y47" s="190"/>
+      <c r="Z47" s="192"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7117,6 +7117,11 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7124,11 +7129,6 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7218,18 +7218,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7237,10 +7237,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7249,13 +7249,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7290,22 +7290,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="198" t="s">
+      <c r="R6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="214" t="s">
+      <c r="S6" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="201" t="s">
+      <c r="T6" s="184" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7342,16 +7342,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="199"/>
-      <c r="S7" s="215"/>
-      <c r="T7" s="202"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="185"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7388,9 +7388,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="199"/>
-      <c r="S8" s="215"/>
-      <c r="T8" s="202"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="185"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7444,9 +7444,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="200"/>
-      <c r="S9" s="216"/>
-      <c r="T9" s="203"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="201"/>
+      <c r="T9" s="186"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10344,13 +10344,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="217"/>
       <c r="B59" s="218"/>
-      <c r="C59" s="208" t="s">
+      <c r="C59" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="209"/>
-      <c r="E59" s="209"/>
-      <c r="F59" s="209"/>
-      <c r="G59" s="210"/>
+      <c r="D59" s="194"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="195"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10391,25 +10391,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="192" t="s">
+      <c r="R59" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="204"/>
-      <c r="T59" s="206">
+      <c r="S59" s="188"/>
+      <c r="T59" s="191">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="211" t="s">
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
+      <c r="C60" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="212"/>
-      <c r="E60" s="212"/>
-      <c r="F60" s="212"/>
-      <c r="G60" s="213"/>
+      <c r="D60" s="197"/>
+      <c r="E60" s="197"/>
+      <c r="F60" s="197"/>
+      <c r="G60" s="198"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10450,12 +10450,17 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="196"/>
-      <c r="S60" s="205"/>
-      <c r="T60" s="207"/>
+      <c r="R60" s="189"/>
+      <c r="S60" s="190"/>
+      <c r="T60" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10463,11 +10468,6 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10577,18 +10577,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10596,10 +10596,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10608,13 +10608,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10646,22 +10646,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="198" t="s">
+      <c r="W6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="214" t="s">
+      <c r="X6" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="201" t="s">
+      <c r="Y6" s="184" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10695,16 +10695,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="215"/>
-      <c r="Y7" s="202"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="185"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10738,9 +10738,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="215"/>
-      <c r="Y8" s="202"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="185"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10809,9 +10809,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="200"/>
-      <c r="X9" s="216"/>
-      <c r="Y9" s="203"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="201"/>
+      <c r="Y9" s="186"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13231,15 +13231,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="181"/>
-      <c r="B55" s="182"/>
-      <c r="C55" s="208" t="s">
+      <c r="A55" s="202"/>
+      <c r="B55" s="203"/>
+      <c r="C55" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="209"/>
-      <c r="E55" s="209"/>
-      <c r="F55" s="209"/>
-      <c r="G55" s="209"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13300,25 +13300,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="192" t="s">
+      <c r="W55" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="204"/>
-      <c r="Y55" s="206">
+      <c r="X55" s="188"/>
+      <c r="Y55" s="191">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="183"/>
-      <c r="B56" s="184"/>
-      <c r="C56" s="211" t="s">
+      <c r="A56" s="204"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="212"/>
-      <c r="E56" s="212"/>
-      <c r="F56" s="212"/>
-      <c r="G56" s="212"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="197"/>
+      <c r="G56" s="197"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13379,12 +13379,17 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="196"/>
-      <c r="X56" s="205"/>
-      <c r="Y56" s="207"/>
+      <c r="W56" s="189"/>
+      <c r="X56" s="190"/>
+      <c r="Y56" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13392,11 +13397,6 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13486,18 +13486,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="206" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="187"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13505,10 +13505,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="190" t="s">
+      <c r="B4" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="212"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13517,13 +13517,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="193"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="213"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13547,22 +13547,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="198" t="s">
+      <c r="W6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="214" t="s">
+      <c r="X6" s="199" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="201" t="s">
+      <c r="Y6" s="184" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="194"/>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
+      <c r="A7" s="214"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13588,16 +13588,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="199"/>
-      <c r="X7" s="215"/>
-      <c r="Y7" s="202"/>
+      <c r="W7" s="182"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="185"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
+      <c r="A8" s="189"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13623,9 +13623,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="215"/>
-      <c r="Y8" s="202"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="185"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13694,9 +13694,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="200"/>
-      <c r="X9" s="216"/>
-      <c r="Y9" s="203"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="201"/>
+      <c r="Y9" s="186"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15586,12 +15586,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="R39" sqref="R39"/>
+      <selection pane="topRight" activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15608,15 +15608,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="18" width="11.28515625" style="77" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="77" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="77" customWidth="1"/>
-    <col min="21" max="21" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="19" width="11.28515625" style="77" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" style="77" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="77" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:21" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:22" ht="13.5" thickBot="1">
       <c r="B2" s="220" t="s">
         <v>17</v>
       </c>
@@ -15624,29 +15624,29 @@
       <c r="D2" s="222"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="B3" s="223" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="224"/>
       <c r="D3" s="135">
-        <f>SUM(I8:R8)</f>
-        <v>30</v>
+        <f>SUM(I8:S8)</f>
+        <v>33</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:21" ht="13.5" thickBot="1">
+    <row r="4" spans="1:22" ht="13.5" thickBot="1">
       <c r="B4" s="225" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="226"/>
       <c r="D4" s="137">
-        <f>U39</f>
-        <v>50</v>
+        <f>V39</f>
+        <v>48.275862068965516</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:21" ht="15">
+    <row r="6" spans="1:22" ht="15">
       <c r="A6" s="227" t="s">
         <v>520</v>
       </c>
@@ -15689,17 +15689,20 @@
       <c r="R6" s="139">
         <v>42410</v>
       </c>
-      <c r="S6" s="228" t="s">
+      <c r="S6" s="139">
+        <v>42415</v>
+      </c>
+      <c r="T6" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="228" t="s">
+      <c r="U6" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="219" t="s">
+      <c r="V6" s="219" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="227"/>
       <c r="B7" s="227"/>
       <c r="C7" s="227"/>
@@ -15742,11 +15745,14 @@
       <c r="R7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="S7" s="228"/>
+      <c r="S7" s="142" t="s">
+        <v>521</v>
+      </c>
       <c r="T7" s="228"/>
-      <c r="U7" s="219"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="U7" s="228"/>
+      <c r="V7" s="219"/>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="227"/>
       <c r="B8" s="227"/>
       <c r="C8" s="227"/>
@@ -15789,11 +15795,14 @@
       <c r="R8" s="159">
         <v>3</v>
       </c>
-      <c r="S8" s="228"/>
+      <c r="S8" s="159">
+        <v>3</v>
+      </c>
       <c r="T8" s="228"/>
-      <c r="U8" s="219"/>
-    </row>
-    <row r="9" spans="1:21" ht="13.5" thickBot="1">
+      <c r="U8" s="228"/>
+      <c r="V8" s="219"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15848,11 +15857,14 @@
       <c r="R9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="S9" s="228"/>
+      <c r="S9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="T9" s="228"/>
-      <c r="U9" s="219"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1">
+      <c r="U9" s="228"/>
+      <c r="V9" s="219"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15899,20 +15911,21 @@
       <c r="R10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="143">
-        <f t="shared" ref="S10:S38" si="0">COUNTIF(I10:R10,"P")</f>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143">
+        <f t="shared" ref="T10:T38" si="0">COUNTIF(I10:S10,"P")</f>
         <v>9</v>
       </c>
-      <c r="T10" s="146">
-        <f t="shared" ref="T10:T38" si="1">COUNTBLANK(I10:R10)</f>
-        <v>1</v>
-      </c>
-      <c r="U10" s="156">
-        <f>S10*100/SUM(S10:T10)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1">
+      <c r="U10" s="146">
+        <f t="shared" ref="U10:U38" si="1">COUNTBLANK(I10:S10)</f>
+        <v>2</v>
+      </c>
+      <c r="V10" s="156">
+        <f>T10*100/SUM(T10:U10)</f>
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -15961,20 +15974,23 @@
       <c r="R11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S11" s="143">
+      <c r="S11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T11" s="146">
+        <v>11</v>
+      </c>
+      <c r="U11" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="156">
-        <f>S11*100/SUM(S11:T11)</f>
+      <c r="V11" s="156">
+        <f>T11*100/SUM(T11:U11)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15.75" thickBot="1">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16023,20 +16039,23 @@
       <c r="R12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="143">
+      <c r="S12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T12" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T12" s="146">
+        <v>11</v>
+      </c>
+      <c r="U12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U12" s="156">
-        <f t="shared" ref="U12:U38" si="2">S12*100/SUM(S12:T12)</f>
+      <c r="V12" s="156">
+        <f t="shared" ref="V12:V38" si="2">T12*100/SUM(T12:U12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16083,20 +16102,21 @@
       <c r="R13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="143">
+      <c r="S13" s="143"/>
+      <c r="T13" s="143">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T13" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="U13" s="156">
+      <c r="U13" s="146">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16127,20 +16147,21 @@
       <c r="P14" s="143"/>
       <c r="Q14" s="143"/>
       <c r="R14" s="143"/>
-      <c r="S14" s="143">
+      <c r="S14" s="143"/>
+      <c r="T14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T14" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U14" s="156">
+      <c r="U14" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V14" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16169,20 +16190,21 @@
       <c r="P15" s="143"/>
       <c r="Q15" s="143"/>
       <c r="R15" s="143"/>
-      <c r="S15" s="143">
+      <c r="S15" s="143"/>
+      <c r="T15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T15" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U15" s="156">
+      <c r="U15" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="174" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:22" s="174" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16229,20 +16251,23 @@
       <c r="R16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="S16" s="143">
+      <c r="S16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T16" s="172">
+        <v>10</v>
+      </c>
+      <c r="U16" s="172">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U16" s="173">
+      <c r="V16" s="173">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16287,20 +16312,23 @@
         <v>104</v>
       </c>
       <c r="R17" s="143"/>
-      <c r="S17" s="143">
+      <c r="S17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T17" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T17" s="146">
+        <v>9</v>
+      </c>
+      <c r="U17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U17" s="156">
+      <c r="V17" s="156">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16345,20 +16373,23 @@
         <v>104</v>
       </c>
       <c r="R18" s="143"/>
-      <c r="S18" s="143">
+      <c r="S18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T18" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="T18" s="146">
+        <v>9</v>
+      </c>
+      <c r="U18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U18" s="156">
+      <c r="V18" s="156">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1">
+        <v>81.818181818181813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16407,20 +16438,23 @@
       <c r="R19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S19" s="143">
+      <c r="S19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T19" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T19" s="146">
+        <v>11</v>
+      </c>
+      <c r="U19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U19" s="156">
+      <c r="V19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:22" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16449,20 +16483,21 @@
       <c r="P20" s="143"/>
       <c r="Q20" s="143"/>
       <c r="R20" s="143"/>
-      <c r="S20" s="143">
+      <c r="S20" s="143"/>
+      <c r="T20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T20" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U20" s="156">
+      <c r="U20" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16505,20 +16540,23 @@
       <c r="R21" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S21" s="143">
+      <c r="S21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T21" s="143">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T21" s="146">
+        <v>8</v>
+      </c>
+      <c r="U21" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U21" s="156">
+      <c r="V21" s="156">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1">
+        <v>72.727272727272734</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16547,20 +16585,21 @@
       <c r="P22" s="143"/>
       <c r="Q22" s="143"/>
       <c r="R22" s="143"/>
-      <c r="S22" s="143">
+      <c r="S22" s="143"/>
+      <c r="T22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T22" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U22" s="156">
+      <c r="U22" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16607,20 +16646,23 @@
       <c r="R23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S23" s="143">
+      <c r="S23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T23" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="T23" s="146">
+        <v>10</v>
+      </c>
+      <c r="U23" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="U23" s="156">
+      <c r="V23" s="156">
         <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16663,20 +16705,21 @@
         <v>104</v>
       </c>
       <c r="R24" s="143"/>
-      <c r="S24" s="143">
+      <c r="S24" s="143"/>
+      <c r="T24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T24" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="U24" s="156">
+      <c r="U24" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V24" s="156">
         <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1">
+        <v>63.636363636363633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16707,20 +16750,21 @@
       <c r="P25" s="143"/>
       <c r="Q25" s="143"/>
       <c r="R25" s="143"/>
-      <c r="S25" s="143">
+      <c r="S25" s="143"/>
+      <c r="T25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T25" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U25" s="156">
+      <c r="U25" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V25" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16751,20 +16795,21 @@
       <c r="P26" s="143"/>
       <c r="Q26" s="143"/>
       <c r="R26" s="143"/>
-      <c r="S26" s="143">
+      <c r="S26" s="143"/>
+      <c r="T26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T26" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U26" s="156">
+      <c r="U26" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V26" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -16805,20 +16850,21 @@
         <v>104</v>
       </c>
       <c r="R27" s="143"/>
-      <c r="S27" s="143">
+      <c r="S27" s="143"/>
+      <c r="T27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T27" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="U27" s="156">
+      <c r="U27" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V27" s="156">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+        <v>54.545454545454547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -16855,20 +16901,23 @@
       <c r="P28" s="143"/>
       <c r="Q28" s="143"/>
       <c r="R28" s="143"/>
-      <c r="S28" s="143">
+      <c r="S28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T28" s="143">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T28" s="146">
+        <v>5</v>
+      </c>
+      <c r="U28" s="146">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="U28" s="156">
+      <c r="V28" s="156">
         <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -16903,20 +16952,21 @@
         <v>104</v>
       </c>
       <c r="R29" s="143"/>
-      <c r="S29" s="143">
+      <c r="S29" s="143"/>
+      <c r="T29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T29" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U29" s="156">
+      <c r="U29" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V29" s="156">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -16965,20 +17015,21 @@
       <c r="R30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="143">
+      <c r="S30" s="143"/>
+      <c r="T30" s="143">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="T30" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="156">
+      <c r="U30" s="146">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V30" s="156">
         <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17007,20 +17058,21 @@
       <c r="P31" s="143"/>
       <c r="Q31" s="143"/>
       <c r="R31" s="143"/>
-      <c r="S31" s="143">
+      <c r="S31" s="143"/>
+      <c r="T31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T31" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U31" s="156">
+      <c r="U31" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" thickBot="1">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17055,20 +17107,21 @@
       <c r="P32" s="143"/>
       <c r="Q32" s="143"/>
       <c r="R32" s="143"/>
-      <c r="S32" s="143">
+      <c r="S32" s="143"/>
+      <c r="T32" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="T32" s="146">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="U32" s="156">
+      <c r="U32" s="146">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V32" s="156">
         <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" thickBot="1">
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17107,20 +17160,21 @@
       </c>
       <c r="Q33" s="143"/>
       <c r="R33" s="143"/>
-      <c r="S33" s="143">
+      <c r="S33" s="143"/>
+      <c r="T33" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="T33" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U33" s="156">
+      <c r="U33" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V33" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" thickBot="1">
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17165,20 +17219,21 @@
         <v>104</v>
       </c>
       <c r="R34" s="143"/>
-      <c r="S34" s="143">
+      <c r="S34" s="143"/>
+      <c r="T34" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="T34" s="146">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="U34" s="156">
+      <c r="U34" s="146">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V34" s="156">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" thickBot="1">
+        <v>72.727272727272734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17207,20 +17262,21 @@
       <c r="P35" s="143"/>
       <c r="Q35" s="143"/>
       <c r="R35" s="143"/>
-      <c r="S35" s="143">
+      <c r="S35" s="143"/>
+      <c r="T35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T35" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U35" s="156">
+      <c r="U35" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1">
+    <row r="36" spans="1:22" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17245,20 +17301,21 @@
       <c r="P36" s="143"/>
       <c r="Q36" s="143"/>
       <c r="R36" s="143"/>
-      <c r="S36" s="143">
+      <c r="S36" s="143"/>
+      <c r="T36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T36" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="U36" s="156">
+      <c r="U36" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="V36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1">
+    <row r="37" spans="1:22" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17297,20 +17354,21 @@
         <v>104</v>
       </c>
       <c r="R37" s="143"/>
-      <c r="S37" s="143">
+      <c r="S37" s="143"/>
+      <c r="T37" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T37" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="U37" s="156">
+      <c r="U37" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="V37" s="156">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1">
+        <v>54.545454545454547</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17339,20 +17397,21 @@
       <c r="P38" s="143"/>
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
-      <c r="S38" s="143">
+      <c r="S38" s="143"/>
+      <c r="T38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="T38" s="146">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="U38" s="156">
+      <c r="U38" s="146">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="V38" s="156">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17401,28 +17460,31 @@
         <v>9</v>
       </c>
       <c r="S39" s="149">
+        <v>9</v>
+      </c>
+      <c r="T39" s="149">
         <f>COUNTIF(I39:J39,"P")</f>
         <v>0</v>
       </c>
-      <c r="T39" s="150">
+      <c r="U39" s="150">
         <f>COUNTBLANK(I39:M39)</f>
         <v>0</v>
       </c>
-      <c r="U39" s="157">
-        <f>AVERAGE(U10:U38)</f>
-        <v>50</v>
+      <c r="V39" s="157">
+        <f>AVERAGE(V10:V38)</f>
+        <v>48.275862068965516</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:U39"/>
+  <autoFilter ref="A9:V39"/>
   <mergeCells count="7">
-    <mergeCell ref="U6:U9"/>
+    <mergeCell ref="V6:V9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="S6:S9"/>
     <mergeCell ref="T6:T9"/>
+    <mergeCell ref="U6:U9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$V$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$W$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="581">
   <si>
     <t>S No</t>
   </si>
@@ -2734,7 +2734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3247,9 +3247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3502,7 +3499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3537,7 +3534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3785,18 +3782,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3804,10 +3801,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="212"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3816,13 +3813,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3875,22 +3872,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="181" t="s">
+      <c r="X6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="199" t="s">
+      <c r="Y6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="184" t="s">
+      <c r="Z6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3945,16 +3942,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="182"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="185"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="184"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4009,9 +4006,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="200"/>
-      <c r="Z8" s="185"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="184"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4083,9 +4080,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="183"/>
-      <c r="Y9" s="201"/>
-      <c r="Z9" s="186"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="200"/>
+      <c r="Z9" s="185"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6758,15 +6755,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="202"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="193" t="s">
+      <c r="A46" s="201"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="194"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6831,25 +6828,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="187" t="s">
+      <c r="X46" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="188"/>
-      <c r="Z46" s="191">
+      <c r="Y46" s="187"/>
+      <c r="Z46" s="190">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="204"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="196" t="s">
+      <c r="A47" s="203"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="198"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="197"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6914,9 +6911,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="189"/>
-      <c r="Y47" s="190"/>
-      <c r="Z47" s="192"/>
+      <c r="X47" s="188"/>
+      <c r="Y47" s="189"/>
+      <c r="Z47" s="191"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7218,18 +7215,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7237,10 +7234,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="212"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7249,13 +7246,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7290,22 +7287,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="181" t="s">
+      <c r="R6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="199" t="s">
+      <c r="S6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="184" t="s">
+      <c r="T6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7342,16 +7339,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="182"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="185"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="184"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7388,9 +7385,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="182"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="185"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="184"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7444,9 +7441,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="183"/>
-      <c r="S9" s="201"/>
-      <c r="T9" s="186"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="185"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10342,15 +10339,15 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A59" s="217"/>
-      <c r="B59" s="218"/>
-      <c r="C59" s="193" t="s">
+      <c r="A59" s="216"/>
+      <c r="B59" s="217"/>
+      <c r="C59" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="194"/>
-      <c r="E59" s="194"/>
-      <c r="F59" s="194"/>
-      <c r="G59" s="195"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="193"/>
+      <c r="F59" s="193"/>
+      <c r="G59" s="194"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10391,25 +10388,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="187" t="s">
+      <c r="R59" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="188"/>
-      <c r="T59" s="191">
+      <c r="S59" s="187"/>
+      <c r="T59" s="190">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="204"/>
-      <c r="B60" s="205"/>
-      <c r="C60" s="196" t="s">
+      <c r="A60" s="203"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="197"/>
-      <c r="E60" s="197"/>
-      <c r="F60" s="197"/>
-      <c r="G60" s="198"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="196"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="197"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10450,9 +10447,9 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="189"/>
-      <c r="S60" s="190"/>
-      <c r="T60" s="192"/>
+      <c r="R60" s="188"/>
+      <c r="S60" s="189"/>
+      <c r="T60" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10577,18 +10574,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10596,10 +10593,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="212"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10608,13 +10605,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10646,22 +10643,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="181" t="s">
+      <c r="W6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="199" t="s">
+      <c r="X6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="184" t="s">
+      <c r="Y6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10695,16 +10692,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="185"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="184"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10738,9 +10735,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="185"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="184"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10809,9 +10806,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="183"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="186"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="185"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13231,15 +13228,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="202"/>
-      <c r="B55" s="203"/>
-      <c r="C55" s="193" t="s">
+      <c r="A55" s="201"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="194"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="194"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="193"/>
+      <c r="G55" s="193"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13300,25 +13297,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="187" t="s">
+      <c r="W55" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="188"/>
-      <c r="Y55" s="191">
+      <c r="X55" s="187"/>
+      <c r="Y55" s="190">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="204"/>
-      <c r="B56" s="205"/>
-      <c r="C56" s="196" t="s">
+      <c r="A56" s="203"/>
+      <c r="B56" s="204"/>
+      <c r="C56" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="197"/>
-      <c r="E56" s="197"/>
-      <c r="F56" s="197"/>
-      <c r="G56" s="197"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="196"/>
+      <c r="F56" s="196"/>
+      <c r="G56" s="196"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13379,9 +13376,9 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="189"/>
-      <c r="X56" s="190"/>
-      <c r="Y56" s="192"/>
+      <c r="W56" s="188"/>
+      <c r="X56" s="189"/>
+      <c r="Y56" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -13486,18 +13483,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13505,10 +13502,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="212"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13517,13 +13514,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13547,22 +13544,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="181" t="s">
+      <c r="W6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="199" t="s">
+      <c r="X6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="184" t="s">
+      <c r="Y6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="214"/>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215"/>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13588,16 +13585,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="182"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="185"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="184"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="189"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13623,9 +13620,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="185"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="184"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13694,9 +13691,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="183"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="186"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="185"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15586,12 +15583,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="S39" sqref="S39"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15608,52 +15605,52 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="19" width="11.28515625" style="77" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" style="77" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="77" customWidth="1"/>
-    <col min="22" max="22" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="20" width="11.28515625" style="77" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="77" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="77" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:22" ht="13.5" thickBot="1">
-      <c r="B2" s="220" t="s">
+    <row r="1" spans="1:23" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:23" ht="13.5" thickBot="1">
+      <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="221"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:22">
-      <c r="B3" s="223" t="s">
+    <row r="3" spans="1:23">
+      <c r="B3" s="222" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="224"/>
+      <c r="C3" s="223"/>
       <c r="D3" s="135">
-        <f>SUM(I8:S8)</f>
-        <v>33</v>
+        <f>SUM(I8:T8)</f>
+        <v>36</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:22" ht="13.5" thickBot="1">
-      <c r="B4" s="225" t="s">
+    <row r="4" spans="1:23" ht="13.5" thickBot="1">
+      <c r="B4" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="226"/>
+      <c r="C4" s="225"/>
       <c r="D4" s="137">
-        <f>V39</f>
-        <v>48.275862068965516</v>
+        <f>W39</f>
+        <v>48.275862068965509</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:22" ht="15">
-      <c r="A6" s="227" t="s">
+    <row r="6" spans="1:23" ht="15">
+      <c r="A6" s="226" t="s">
         <v>520</v>
       </c>
-      <c r="B6" s="227"/>
-      <c r="C6" s="227"/>
-      <c r="D6" s="227"/>
-      <c r="E6" s="227"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
+      <c r="E6" s="226"/>
       <c r="F6" s="151" t="s">
         <v>18</v>
       </c>
@@ -15692,22 +15689,25 @@
       <c r="S6" s="139">
         <v>42415</v>
       </c>
-      <c r="T6" s="228" t="s">
+      <c r="T6" s="139">
+        <v>42419</v>
+      </c>
+      <c r="U6" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="U6" s="228" t="s">
+      <c r="V6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="219" t="s">
+      <c r="W6" s="218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="227"/>
-      <c r="B7" s="227"/>
-      <c r="C7" s="227"/>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
+    <row r="7" spans="1:23">
+      <c r="A7" s="226"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
       <c r="F7" s="140" t="s">
         <v>16</v>
       </c>
@@ -15748,16 +15748,19 @@
       <c r="S7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="T7" s="228"/>
-      <c r="U7" s="228"/>
-      <c r="V7" s="219"/>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="227"/>
-      <c r="B8" s="227"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="227"/>
-      <c r="E8" s="227"/>
+      <c r="T7" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="U7" s="227"/>
+      <c r="V7" s="227"/>
+      <c r="W7" s="218"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="226"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="226"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
       <c r="F8" s="153" t="s">
         <v>19</v>
       </c>
@@ -15798,11 +15801,14 @@
       <c r="S8" s="159">
         <v>3</v>
       </c>
-      <c r="T8" s="228"/>
-      <c r="U8" s="228"/>
-      <c r="V8" s="219"/>
-    </row>
-    <row r="9" spans="1:22" ht="13.5" thickBot="1">
+      <c r="T8" s="159">
+        <v>3</v>
+      </c>
+      <c r="U8" s="227"/>
+      <c r="V8" s="227"/>
+      <c r="W8" s="218"/>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15860,16 +15866,19 @@
       <c r="S9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="T9" s="228"/>
-      <c r="U9" s="228"/>
-      <c r="V9" s="219"/>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1">
+      <c r="T9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="U9" s="227"/>
+      <c r="V9" s="227"/>
+      <c r="W9" s="218"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
       <c r="B10" s="160"/>
-      <c r="C10" s="178" t="s">
+      <c r="C10" s="177" t="s">
         <v>523</v>
       </c>
       <c r="D10" s="162"/>
@@ -15879,10 +15888,10 @@
       <c r="F10" s="164">
         <v>1966551361</v>
       </c>
-      <c r="G10" s="179" t="s">
+      <c r="G10" s="178" t="s">
         <v>553</v>
       </c>
-      <c r="H10" s="176"/>
+      <c r="H10" s="175"/>
       <c r="I10" s="143" t="s">
         <v>104</v>
       </c>
@@ -15912,25 +15921,28 @@
         <v>104</v>
       </c>
       <c r="S10" s="143"/>
-      <c r="T10" s="143">
-        <f t="shared" ref="T10:T38" si="0">COUNTIF(I10:S10,"P")</f>
-        <v>9</v>
-      </c>
-      <c r="U10" s="146">
-        <f t="shared" ref="U10:U38" si="1">COUNTBLANK(I10:S10)</f>
+      <c r="T10" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U10" s="143">
+        <f>COUNTIF(I10:T10,"P")</f>
+        <v>10</v>
+      </c>
+      <c r="V10" s="146">
+        <f>COUNTBLANK(I10:T10)</f>
         <v>2</v>
       </c>
-      <c r="V10" s="156">
-        <f>T10*100/SUM(T10:U10)</f>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1">
+      <c r="W10" s="156">
+        <f>U10*100/SUM(U10:V10)</f>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
       <c r="B11" s="160"/>
-      <c r="C11" s="178" t="s">
+      <c r="C11" s="177" t="s">
         <v>524</v>
       </c>
       <c r="D11" s="162"/>
@@ -15940,10 +15952,10 @@
       <c r="F11" s="164">
         <v>1688964516</v>
       </c>
-      <c r="G11" s="179" t="s">
+      <c r="G11" s="178" t="s">
         <v>554</v>
       </c>
-      <c r="H11" s="176"/>
+      <c r="H11" s="175"/>
       <c r="I11" s="143" t="s">
         <v>104</v>
       </c>
@@ -15977,25 +15989,26 @@
       <c r="S11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T11" s="143">
-        <f t="shared" si="0"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143">
+        <f t="shared" ref="U11:U38" si="0">COUNTIF(I11:T11,"P")</f>
         <v>11</v>
       </c>
-      <c r="U11" s="146">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="156">
-        <f>T11*100/SUM(T11:U11)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1">
+      <c r="V11" s="146">
+        <f t="shared" ref="V11:V38" si="1">COUNTBLANK(I11:T11)</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="156">
+        <f>U11*100/SUM(U11:V11)</f>
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
       <c r="B12" s="160"/>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="177" t="s">
         <v>525</v>
       </c>
       <c r="D12" s="162"/>
@@ -16005,10 +16018,10 @@
       <c r="F12" s="164">
         <v>1723177620</v>
       </c>
-      <c r="G12" s="179" t="s">
+      <c r="G12" s="178" t="s">
         <v>555</v>
       </c>
-      <c r="H12" s="175"/>
+      <c r="H12" s="174"/>
       <c r="I12" s="143" t="s">
         <v>104</v>
       </c>
@@ -16042,25 +16055,28 @@
       <c r="S12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T12" s="143">
+      <c r="T12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U12" s="146">
+        <v>12</v>
+      </c>
+      <c r="V12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="156">
-        <f t="shared" ref="V12:V38" si="2">T12*100/SUM(T12:U12)</f>
+      <c r="W12" s="156">
+        <f t="shared" ref="W12:W38" si="2">U12*100/SUM(U12:V12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1">
+    <row r="13" spans="1:23" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
       <c r="B13" s="160"/>
-      <c r="C13" s="178" t="s">
+      <c r="C13" s="177" t="s">
         <v>526</v>
       </c>
       <c r="D13" s="162"/>
@@ -16070,10 +16086,10 @@
       <c r="F13" s="164">
         <v>1552638899</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="178" t="s">
         <v>556</v>
       </c>
-      <c r="H13" s="176"/>
+      <c r="H13" s="175"/>
       <c r="I13" s="143" t="s">
         <v>104</v>
       </c>
@@ -16103,25 +16119,28 @@
         <v>104</v>
       </c>
       <c r="S13" s="143"/>
-      <c r="T13" s="143">
+      <c r="T13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U13" s="146">
+        <v>10</v>
+      </c>
+      <c r="V13" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V13" s="156">
+      <c r="W13" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
       <c r="B14" s="160"/>
-      <c r="C14" s="178" t="s">
+      <c r="C14" s="177" t="s">
         <v>527</v>
       </c>
       <c r="D14" s="162"/>
@@ -16131,10 +16150,10 @@
       <c r="F14" s="164">
         <v>1797978424</v>
       </c>
-      <c r="G14" s="179" t="s">
+      <c r="G14" s="178" t="s">
         <v>557</v>
       </c>
-      <c r="H14" s="175"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="143"/>
       <c r="J14" s="143"/>
       <c r="K14" s="143" t="s">
@@ -16148,25 +16167,26 @@
       <c r="Q14" s="143"/>
       <c r="R14" s="143"/>
       <c r="S14" s="143"/>
-      <c r="T14" s="143">
+      <c r="T14" s="143"/>
+      <c r="U14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U14" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V14" s="156">
+      <c r="V14" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W14" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
       <c r="B15" s="160"/>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="177" t="s">
         <v>528</v>
       </c>
       <c r="D15" s="162"/>
@@ -16176,10 +16196,10 @@
       <c r="F15" s="164">
         <v>1943426291</v>
       </c>
-      <c r="G15" s="179" t="s">
+      <c r="G15" s="178" t="s">
         <v>558</v>
       </c>
-      <c r="H15" s="175"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="143"/>
       <c r="J15" s="143"/>
       <c r="K15" s="143"/>
@@ -16191,25 +16211,26 @@
       <c r="Q15" s="143"/>
       <c r="R15" s="143"/>
       <c r="S15" s="143"/>
-      <c r="T15" s="143">
+      <c r="T15" s="143"/>
+      <c r="U15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U15" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V15" s="156">
+      <c r="V15" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="174" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:23" s="173" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
       <c r="B16" s="169"/>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="177" t="s">
         <v>529</v>
       </c>
       <c r="D16" s="170"/>
@@ -16219,10 +16240,10 @@
       <c r="F16" s="164">
         <v>1755025256</v>
       </c>
-      <c r="G16" s="179" t="s">
+      <c r="G16" s="178" t="s">
         <v>559</v>
       </c>
-      <c r="H16" s="176"/>
+      <c r="H16" s="175"/>
       <c r="I16" s="143" t="s">
         <v>104</v>
       </c>
@@ -16254,25 +16275,28 @@
       <c r="S16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="143">
+      <c r="T16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="U16" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U16" s="172">
+        <v>11</v>
+      </c>
+      <c r="V16" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V16" s="173">
+      <c r="W16" s="172">
         <f t="shared" si="2"/>
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
       <c r="B17" s="160"/>
-      <c r="C17" s="178" t="s">
+      <c r="C17" s="177" t="s">
         <v>530</v>
       </c>
       <c r="D17" s="162"/>
@@ -16282,10 +16306,10 @@
       <c r="F17" s="164">
         <v>1765898500</v>
       </c>
-      <c r="G17" s="179" t="s">
+      <c r="G17" s="178" t="s">
         <v>560</v>
       </c>
-      <c r="H17" s="176"/>
+      <c r="H17" s="175"/>
       <c r="I17" s="143" t="s">
         <v>104</v>
       </c>
@@ -16315,25 +16339,28 @@
       <c r="S17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T17" s="143">
+      <c r="T17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U17" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U17" s="146">
+        <v>10</v>
+      </c>
+      <c r="V17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V17" s="156">
+      <c r="W17" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
       <c r="B18" s="161"/>
-      <c r="C18" s="178" t="s">
+      <c r="C18" s="177" t="s">
         <v>531</v>
       </c>
       <c r="D18" s="162"/>
@@ -16343,10 +16370,10 @@
       <c r="F18" s="164">
         <v>1829611504</v>
       </c>
-      <c r="G18" s="179" t="s">
+      <c r="G18" s="178" t="s">
         <v>561</v>
       </c>
-      <c r="H18" s="176"/>
+      <c r="H18" s="175"/>
       <c r="I18" s="143" t="s">
         <v>104</v>
       </c>
@@ -16376,25 +16403,28 @@
       <c r="S18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T18" s="143">
+      <c r="T18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="U18" s="146">
+        <v>10</v>
+      </c>
+      <c r="V18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V18" s="156">
+      <c r="W18" s="156">
         <f t="shared" si="2"/>
-        <v>81.818181818181813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
       <c r="B19" s="160"/>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="177" t="s">
         <v>532</v>
       </c>
       <c r="D19" s="162"/>
@@ -16404,10 +16434,10 @@
       <c r="F19" s="164">
         <v>1684207182</v>
       </c>
-      <c r="G19" s="179" t="s">
+      <c r="G19" s="178" t="s">
         <v>562</v>
       </c>
-      <c r="H19" s="177"/>
+      <c r="H19" s="176"/>
       <c r="I19" s="143" t="s">
         <v>104</v>
       </c>
@@ -16441,25 +16471,28 @@
       <c r="S19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T19" s="143">
+      <c r="T19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U19" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="U19" s="146">
+        <v>12</v>
+      </c>
+      <c r="V19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V19" s="156">
+      <c r="W19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:23" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
       <c r="B20" s="161"/>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="177" t="s">
         <v>533</v>
       </c>
       <c r="D20" s="163"/>
@@ -16469,10 +16502,10 @@
       <c r="F20" s="164">
         <v>1730712381</v>
       </c>
-      <c r="G20" s="179" t="s">
+      <c r="G20" s="178" t="s">
         <v>563</v>
       </c>
-      <c r="H20" s="176"/>
+      <c r="H20" s="175"/>
       <c r="I20" s="143"/>
       <c r="J20" s="143"/>
       <c r="K20" s="143"/>
@@ -16484,25 +16517,26 @@
       <c r="Q20" s="143"/>
       <c r="R20" s="143"/>
       <c r="S20" s="143"/>
-      <c r="T20" s="143">
+      <c r="T20" s="143"/>
+      <c r="U20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U20" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V20" s="156">
+      <c r="V20" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1">
+    <row r="21" spans="1:23" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
       <c r="B21" s="160"/>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="177" t="s">
         <v>534</v>
       </c>
       <c r="D21" s="162"/>
@@ -16512,10 +16546,10 @@
       <c r="F21" s="164">
         <v>1723180071</v>
       </c>
-      <c r="G21" s="179" t="s">
+      <c r="G21" s="178" t="s">
         <v>564</v>
       </c>
-      <c r="H21" s="175"/>
+      <c r="H21" s="174"/>
       <c r="I21" s="143" t="s">
         <v>104</v>
       </c>
@@ -16543,25 +16577,26 @@
       <c r="S21" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T21" s="143">
+      <c r="T21" s="143"/>
+      <c r="U21" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="U21" s="146">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V21" s="156">
+      <c r="V21" s="146">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W21" s="156">
         <f t="shared" si="2"/>
-        <v>72.727272727272734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
       <c r="B22" s="160"/>
-      <c r="C22" s="178" t="s">
+      <c r="C22" s="177" t="s">
         <v>535</v>
       </c>
       <c r="D22" s="162"/>
@@ -16571,10 +16606,10 @@
       <c r="F22" s="164">
         <v>1731931181</v>
       </c>
-      <c r="G22" s="179" t="s">
+      <c r="G22" s="178" t="s">
         <v>565</v>
       </c>
-      <c r="H22" s="176"/>
+      <c r="H22" s="175"/>
       <c r="I22" s="143"/>
       <c r="J22" s="143"/>
       <c r="K22" s="143"/>
@@ -16586,25 +16621,26 @@
       <c r="Q22" s="143"/>
       <c r="R22" s="143"/>
       <c r="S22" s="143"/>
-      <c r="T22" s="143">
+      <c r="T22" s="143"/>
+      <c r="U22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U22" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V22" s="156">
+      <c r="V22" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1">
+    <row r="23" spans="1:23" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
       <c r="B23" s="160"/>
-      <c r="C23" s="178" t="s">
+      <c r="C23" s="177" t="s">
         <v>536</v>
       </c>
       <c r="D23" s="162"/>
@@ -16614,10 +16650,10 @@
       <c r="F23" s="164">
         <v>1680068181</v>
       </c>
-      <c r="G23" s="179" t="s">
+      <c r="G23" s="178" t="s">
         <v>566</v>
       </c>
-      <c r="H23" s="175"/>
+      <c r="H23" s="174"/>
       <c r="I23" s="143" t="s">
         <v>104</v>
       </c>
@@ -16649,25 +16685,28 @@
       <c r="S23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T23" s="143">
+      <c r="T23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U23" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U23" s="146">
+        <v>11</v>
+      </c>
+      <c r="V23" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V23" s="156">
+      <c r="W23" s="156">
         <f t="shared" si="2"/>
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1">
+        <v>91.666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
       <c r="B24" s="160"/>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="177" t="s">
         <v>537</v>
       </c>
       <c r="D24" s="162"/>
@@ -16677,10 +16716,10 @@
       <c r="F24" s="164">
         <v>1673447770</v>
       </c>
-      <c r="G24" s="179" t="s">
+      <c r="G24" s="178" t="s">
         <v>567</v>
       </c>
-      <c r="H24" s="175"/>
+      <c r="H24" s="174"/>
       <c r="I24" s="143" t="s">
         <v>104</v>
       </c>
@@ -16706,25 +16745,26 @@
       </c>
       <c r="R24" s="143"/>
       <c r="S24" s="143"/>
-      <c r="T24" s="143">
+      <c r="T24" s="143"/>
+      <c r="U24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U24" s="146">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V24" s="156">
+      <c r="V24" s="146">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W24" s="156">
         <f t="shared" si="2"/>
-        <v>63.636363636363633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
       <c r="B25" s="160"/>
-      <c r="C25" s="178" t="s">
+      <c r="C25" s="177" t="s">
         <v>538</v>
       </c>
       <c r="D25" s="162"/>
@@ -16734,10 +16774,10 @@
       <c r="F25" s="164">
         <v>1742205594</v>
       </c>
-      <c r="G25" s="179" t="s">
+      <c r="G25" s="178" t="s">
         <v>568</v>
       </c>
-      <c r="H25" s="176"/>
+      <c r="H25" s="175"/>
       <c r="I25" s="143"/>
       <c r="J25" s="143" t="s">
         <v>104</v>
@@ -16751,25 +16791,26 @@
       <c r="Q25" s="143"/>
       <c r="R25" s="143"/>
       <c r="S25" s="143"/>
-      <c r="T25" s="143">
+      <c r="T25" s="143"/>
+      <c r="U25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U25" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V25" s="156">
+      <c r="V25" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W25" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
       <c r="B26" s="160"/>
-      <c r="C26" s="178" t="s">
+      <c r="C26" s="177" t="s">
         <v>539</v>
       </c>
       <c r="D26" s="162"/>
@@ -16779,10 +16820,10 @@
       <c r="F26" s="164">
         <v>1913385813</v>
       </c>
-      <c r="G26" s="179" t="s">
+      <c r="G26" s="178" t="s">
         <v>569</v>
       </c>
-      <c r="H26" s="176"/>
+      <c r="H26" s="175"/>
       <c r="I26" s="143"/>
       <c r="J26" s="143" t="s">
         <v>104</v>
@@ -16796,25 +16837,26 @@
       <c r="Q26" s="143"/>
       <c r="R26" s="143"/>
       <c r="S26" s="143"/>
-      <c r="T26" s="143">
+      <c r="T26" s="143"/>
+      <c r="U26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U26" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V26" s="156">
+      <c r="V26" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W26" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
       <c r="B27" s="160"/>
-      <c r="C27" s="178" t="s">
+      <c r="C27" s="177" t="s">
         <v>540</v>
       </c>
       <c r="D27" s="162"/>
@@ -16824,10 +16866,10 @@
       <c r="F27" s="164">
         <v>1675022260</v>
       </c>
-      <c r="G27" s="179" t="s">
+      <c r="G27" s="178" t="s">
         <v>570</v>
       </c>
-      <c r="H27" s="176"/>
+      <c r="H27" s="175"/>
       <c r="I27" s="143" t="s">
         <v>104</v>
       </c>
@@ -16851,25 +16893,26 @@
       </c>
       <c r="R27" s="143"/>
       <c r="S27" s="143"/>
-      <c r="T27" s="143">
+      <c r="T27" s="143"/>
+      <c r="U27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="U27" s="146">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="V27" s="156">
+      <c r="V27" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W27" s="156">
         <f t="shared" si="2"/>
-        <v>54.545454545454547</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
       <c r="B28" s="160"/>
-      <c r="C28" s="178" t="s">
+      <c r="C28" s="177" t="s">
         <v>541</v>
       </c>
       <c r="D28" s="162"/>
@@ -16879,10 +16922,10 @@
       <c r="F28" s="164">
         <v>1687255283</v>
       </c>
-      <c r="G28" s="179" t="s">
+      <c r="G28" s="178" t="s">
         <v>571</v>
       </c>
-      <c r="H28" s="175"/>
+      <c r="H28" s="174"/>
       <c r="I28" s="143" t="s">
         <v>104</v>
       </c>
@@ -16904,25 +16947,26 @@
       <c r="S28" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="T28" s="143">
+      <c r="T28" s="143"/>
+      <c r="U28" s="143">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="U28" s="146">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="V28" s="156">
+      <c r="V28" s="146">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W28" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" thickBot="1">
+        <v>41.666666666666664</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
       <c r="B29" s="160"/>
-      <c r="C29" s="178" t="s">
+      <c r="C29" s="177" t="s">
         <v>542</v>
       </c>
       <c r="D29" s="143"/>
@@ -16932,10 +16976,10 @@
       <c r="F29" s="164">
         <v>1736618138</v>
       </c>
-      <c r="G29" s="179" t="s">
+      <c r="G29" s="178" t="s">
         <v>572</v>
       </c>
-      <c r="H29" s="176"/>
+      <c r="H29" s="175"/>
       <c r="I29" s="143"/>
       <c r="J29" s="143"/>
       <c r="K29" s="143"/>
@@ -16953,25 +16997,26 @@
       </c>
       <c r="R29" s="143"/>
       <c r="S29" s="143"/>
-      <c r="T29" s="143">
+      <c r="T29" s="143"/>
+      <c r="U29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="U29" s="146">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="V29" s="156">
+      <c r="V29" s="146">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="W29" s="156">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
       <c r="B30" s="160"/>
-      <c r="C30" s="178" t="s">
+      <c r="C30" s="177" t="s">
         <v>543</v>
       </c>
       <c r="D30" s="143"/>
@@ -16981,10 +17026,10 @@
       <c r="F30" s="164">
         <v>1624170927</v>
       </c>
-      <c r="G30" s="179" t="s">
+      <c r="G30" s="178" t="s">
         <v>573</v>
       </c>
-      <c r="H30" s="176"/>
+      <c r="H30" s="175"/>
       <c r="I30" s="143" t="s">
         <v>104</v>
       </c>
@@ -17015,26 +17060,31 @@
       <c r="R30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143">
+      <c r="S30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="T30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U30" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="U30" s="146">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V30" s="156">
+        <v>12</v>
+      </c>
+      <c r="V30" s="146">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="156">
         <f t="shared" si="2"/>
-        <v>90.909090909090907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
       <c r="B31" s="160"/>
-      <c r="C31" s="178" t="s">
+      <c r="C31" s="177" t="s">
         <v>544</v>
       </c>
       <c r="D31" s="143"/>
@@ -17044,10 +17094,10 @@
       <c r="F31" s="164">
         <v>1611282830</v>
       </c>
-      <c r="G31" s="179" t="s">
+      <c r="G31" s="178" t="s">
         <v>574</v>
       </c>
-      <c r="H31" s="175"/>
+      <c r="H31" s="174"/>
       <c r="I31" s="143"/>
       <c r="J31" s="143"/>
       <c r="K31" s="143"/>
@@ -17059,25 +17109,26 @@
       <c r="Q31" s="143"/>
       <c r="R31" s="143"/>
       <c r="S31" s="143"/>
-      <c r="T31" s="143">
+      <c r="T31" s="143"/>
+      <c r="U31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U31" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V31" s="156">
+      <c r="V31" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1">
+    <row r="32" spans="1:23" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
       <c r="B32" s="160"/>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="177" t="s">
         <v>545</v>
       </c>
       <c r="D32" s="143"/>
@@ -17087,10 +17138,10 @@
       <c r="F32" s="164">
         <v>1745660040</v>
       </c>
-      <c r="G32" s="179" t="s">
+      <c r="G32" s="178" t="s">
         <v>575</v>
       </c>
-      <c r="H32" s="175"/>
+      <c r="H32" s="174"/>
       <c r="I32" s="143"/>
       <c r="J32" s="143" t="s">
         <v>104</v>
@@ -17108,25 +17159,28 @@
       <c r="Q32" s="143"/>
       <c r="R32" s="143"/>
       <c r="S32" s="143"/>
-      <c r="T32" s="143">
+      <c r="T32" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U32" s="143">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="U32" s="146">
+        <v>4</v>
+      </c>
+      <c r="V32" s="146">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V32" s="156">
+      <c r="W32" s="156">
         <f t="shared" si="2"/>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
       <c r="B33" s="160"/>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="177" t="s">
         <v>546</v>
       </c>
       <c r="D33" s="143"/>
@@ -17139,7 +17193,7 @@
       <c r="G33" s="166" t="s">
         <v>576</v>
       </c>
-      <c r="H33" s="175"/>
+      <c r="H33" s="174"/>
       <c r="I33" s="143" t="s">
         <v>104</v>
       </c>
@@ -17161,25 +17215,28 @@
       <c r="Q33" s="143"/>
       <c r="R33" s="143"/>
       <c r="S33" s="143"/>
-      <c r="T33" s="143">
+      <c r="T33" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U33" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="U33" s="146">
-        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V33" s="156">
+      <c r="V33" s="146">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W33" s="156">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
       <c r="B34" s="160"/>
-      <c r="C34" s="178" t="s">
+      <c r="C34" s="177" t="s">
         <v>547</v>
       </c>
       <c r="D34" s="143"/>
@@ -17189,10 +17246,10 @@
       <c r="F34" s="164">
         <v>1674517811</v>
       </c>
-      <c r="G34" s="179" t="s">
+      <c r="G34" s="178" t="s">
         <v>577</v>
       </c>
-      <c r="H34" s="175"/>
+      <c r="H34" s="174"/>
       <c r="I34" s="143" t="s">
         <v>104</v>
       </c>
@@ -17220,25 +17277,28 @@
       </c>
       <c r="R34" s="143"/>
       <c r="S34" s="143"/>
-      <c r="T34" s="143">
+      <c r="T34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U34" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="U34" s="146">
+        <v>9</v>
+      </c>
+      <c r="V34" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V34" s="156">
+      <c r="W34" s="156">
         <f t="shared" si="2"/>
-        <v>72.727272727272734</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
       <c r="B35" s="160"/>
-      <c r="C35" s="178" t="s">
+      <c r="C35" s="177" t="s">
         <v>548</v>
       </c>
       <c r="D35" s="143"/>
@@ -17248,10 +17308,10 @@
       <c r="F35" s="164">
         <v>1673825515</v>
       </c>
-      <c r="G35" s="179" t="s">
+      <c r="G35" s="178" t="s">
         <v>578</v>
       </c>
-      <c r="H35" s="175"/>
+      <c r="H35" s="174"/>
       <c r="I35" s="143"/>
       <c r="J35" s="143"/>
       <c r="K35" s="143"/>
@@ -17263,34 +17323,35 @@
       <c r="Q35" s="143"/>
       <c r="R35" s="143"/>
       <c r="S35" s="143"/>
-      <c r="T35" s="143">
+      <c r="T35" s="143"/>
+      <c r="U35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U35" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V35" s="156">
+      <c r="V35" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1">
+    <row r="36" spans="1:23" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
       <c r="B36" s="160"/>
-      <c r="C36" s="180" t="s">
+      <c r="C36" s="179" t="s">
         <v>549</v>
       </c>
       <c r="D36" s="143"/>
       <c r="E36" s="164" t="s">
         <v>552</v>
       </c>
-      <c r="F36" s="175"/>
+      <c r="F36" s="174"/>
       <c r="G36" s="165"/>
-      <c r="H36" s="175"/>
+      <c r="H36" s="174"/>
       <c r="I36" s="143"/>
       <c r="J36" s="143"/>
       <c r="K36" s="143"/>
@@ -17302,36 +17363,37 @@
       <c r="Q36" s="143"/>
       <c r="R36" s="143"/>
       <c r="S36" s="143"/>
-      <c r="T36" s="143">
+      <c r="T36" s="143"/>
+      <c r="U36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U36" s="146">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="V36" s="156">
+      <c r="V36" s="146">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="W36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1">
+    <row r="37" spans="1:23" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
       <c r="B37" s="160"/>
-      <c r="C37" s="180" t="s">
+      <c r="C37" s="179" t="s">
         <v>550</v>
       </c>
       <c r="D37" s="143"/>
       <c r="E37" s="164" t="s">
         <v>552</v>
       </c>
-      <c r="F37" s="175"/>
+      <c r="F37" s="174"/>
       <c r="G37" s="167" t="s">
         <v>579</v>
       </c>
-      <c r="H37" s="175"/>
+      <c r="H37" s="174"/>
       <c r="I37" s="143" t="s">
         <v>104</v>
       </c>
@@ -17355,36 +17417,39 @@
       </c>
       <c r="R37" s="143"/>
       <c r="S37" s="143"/>
-      <c r="T37" s="143">
+      <c r="T37" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="U37" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="U37" s="146">
+        <v>7</v>
+      </c>
+      <c r="V37" s="146">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="V37" s="156">
+      <c r="W37" s="156">
         <f t="shared" si="2"/>
-        <v>54.545454545454547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="15.75" thickBot="1">
+        <v>58.333333333333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
       <c r="B38" s="160"/>
-      <c r="C38" s="180" t="s">
+      <c r="C38" s="179" t="s">
         <v>551</v>
       </c>
       <c r="D38" s="143"/>
       <c r="E38" s="164" t="s">
         <v>552</v>
       </c>
-      <c r="F38" s="175"/>
+      <c r="F38" s="174"/>
       <c r="G38" s="167" t="s">
         <v>580</v>
       </c>
-      <c r="H38" s="175"/>
+      <c r="H38" s="174"/>
       <c r="I38" s="143" t="s">
         <v>104</v>
       </c>
@@ -17398,20 +17463,21 @@
       <c r="Q38" s="143"/>
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
-      <c r="T38" s="143">
+      <c r="T38" s="143"/>
+      <c r="U38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="U38" s="146">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="V38" s="156">
+      <c r="V38" s="146">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="W38" s="156">
         <f t="shared" si="2"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="15">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17423,7 +17489,7 @@
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
       <c r="I39" s="149">
-        <f t="shared" ref="I39:O39" si="3">COUNTIF(I10:I38,"p")</f>
+        <f t="shared" ref="I39:T39" si="3">COUNTIF(I10:I38,"p")</f>
         <v>18</v>
       </c>
       <c r="J39" s="149">
@@ -17451,40 +17517,42 @@
         <v>13</v>
       </c>
       <c r="P39" s="149">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="Q39" s="149">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="R39" s="149">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S39" s="149">
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
       </c>
       <c r="T39" s="149">
-        <f>COUNTIF(I39:J39,"P")</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="150">
-        <f>COUNTBLANK(I39:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="V39" s="157">
-        <f>AVERAGE(V10:V38)</f>
-        <v>48.275862068965516</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="U39" s="149"/>
+      <c r="V39" s="150"/>
+      <c r="W39" s="157">
+        <f>AVERAGE(W10:W38)</f>
+        <v>48.275862068965509</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:V39"/>
+  <autoFilter ref="A9:W39"/>
   <mergeCells count="7">
-    <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="T6:T9"/>
     <mergeCell ref="U6:U9"/>
+    <mergeCell ref="V6:V9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$W$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$X$39</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0">
+    <comment ref="L7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="581">
   <si>
     <t>S No</t>
   </si>
@@ -3273,6 +3273,57 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3291,15 +3342,9 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3334,51 +3379,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3499,7 +3499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3534,7 +3534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3782,18 +3782,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3801,10 +3801,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3813,13 +3813,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3872,22 +3872,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="180" t="s">
+      <c r="X6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="198" t="s">
+      <c r="Y6" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="183" t="s">
+      <c r="Z6" s="200" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3942,16 +3942,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="199"/>
-      <c r="Z7" s="184"/>
+      <c r="X7" s="198"/>
+      <c r="Y7" s="214"/>
+      <c r="Z7" s="201"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4006,9 +4006,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="181"/>
-      <c r="Y8" s="199"/>
-      <c r="Z8" s="184"/>
+      <c r="X8" s="198"/>
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="201"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4080,9 +4080,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="185"/>
+      <c r="X9" s="199"/>
+      <c r="Y9" s="215"/>
+      <c r="Z9" s="202"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6755,15 +6755,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="201"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="192" t="s">
+      <c r="A46" s="180"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="194"/>
+      <c r="D46" s="208"/>
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="209"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6828,25 +6828,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="186" t="s">
+      <c r="X46" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="187"/>
-      <c r="Z46" s="190">
+      <c r="Y46" s="203"/>
+      <c r="Z46" s="205">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="203"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="195" t="s">
+      <c r="A47" s="182"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="196"/>
-      <c r="E47" s="196"/>
-      <c r="F47" s="196"/>
-      <c r="G47" s="197"/>
+      <c r="D47" s="211"/>
+      <c r="E47" s="211"/>
+      <c r="F47" s="211"/>
+      <c r="G47" s="212"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6911,9 +6911,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="188"/>
-      <c r="Y47" s="189"/>
-      <c r="Z47" s="191"/>
+      <c r="X47" s="195"/>
+      <c r="Y47" s="204"/>
+      <c r="Z47" s="206"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7114,11 +7114,6 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7126,6 +7121,11 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7215,18 +7215,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7234,10 +7234,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7246,13 +7246,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7287,22 +7287,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="180" t="s">
+      <c r="R6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="198" t="s">
+      <c r="S6" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="183" t="s">
+      <c r="T6" s="200" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7339,16 +7339,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="181"/>
-      <c r="S7" s="199"/>
-      <c r="T7" s="184"/>
+      <c r="R7" s="198"/>
+      <c r="S7" s="214"/>
+      <c r="T7" s="201"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7385,9 +7385,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="181"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="184"/>
+      <c r="R8" s="198"/>
+      <c r="S8" s="214"/>
+      <c r="T8" s="201"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7441,9 +7441,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="182"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="185"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="215"/>
+      <c r="T9" s="202"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10341,13 +10341,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="216"/>
       <c r="B59" s="217"/>
-      <c r="C59" s="192" t="s">
+      <c r="C59" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="194"/>
+      <c r="D59" s="208"/>
+      <c r="E59" s="208"/>
+      <c r="F59" s="208"/>
+      <c r="G59" s="209"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10388,25 +10388,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="186" t="s">
+      <c r="R59" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="187"/>
-      <c r="T59" s="190">
+      <c r="S59" s="203"/>
+      <c r="T59" s="205">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="203"/>
-      <c r="B60" s="204"/>
-      <c r="C60" s="195" t="s">
+      <c r="A60" s="182"/>
+      <c r="B60" s="183"/>
+      <c r="C60" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="196"/>
-      <c r="E60" s="196"/>
-      <c r="F60" s="196"/>
-      <c r="G60" s="197"/>
+      <c r="D60" s="211"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="211"/>
+      <c r="G60" s="212"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10447,17 +10447,12 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="188"/>
-      <c r="S60" s="189"/>
-      <c r="T60" s="191"/>
+      <c r="R60" s="195"/>
+      <c r="S60" s="204"/>
+      <c r="T60" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10465,6 +10460,11 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10574,18 +10574,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10593,10 +10593,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10605,13 +10605,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10643,22 +10643,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="180" t="s">
+      <c r="W6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="198" t="s">
+      <c r="X6" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="183" t="s">
+      <c r="Y6" s="200" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10692,16 +10692,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="184"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="201"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10735,9 +10735,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="199"/>
-      <c r="Y8" s="184"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="201"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10806,9 +10806,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="182"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="185"/>
+      <c r="W9" s="199"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="202"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13228,15 +13228,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="201"/>
-      <c r="B55" s="202"/>
-      <c r="C55" s="192" t="s">
+      <c r="A55" s="180"/>
+      <c r="B55" s="181"/>
+      <c r="C55" s="207" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="193"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="193"/>
-      <c r="G55" s="193"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="208"/>
+      <c r="F55" s="208"/>
+      <c r="G55" s="208"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13297,25 +13297,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="186" t="s">
+      <c r="W55" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="187"/>
-      <c r="Y55" s="190">
+      <c r="X55" s="203"/>
+      <c r="Y55" s="205">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="203"/>
-      <c r="B56" s="204"/>
-      <c r="C56" s="195" t="s">
+      <c r="A56" s="182"/>
+      <c r="B56" s="183"/>
+      <c r="C56" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="196"/>
-      <c r="E56" s="196"/>
-      <c r="F56" s="196"/>
-      <c r="G56" s="196"/>
+      <c r="D56" s="211"/>
+      <c r="E56" s="211"/>
+      <c r="F56" s="211"/>
+      <c r="G56" s="211"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13376,17 +13376,12 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="188"/>
-      <c r="X56" s="189"/>
-      <c r="Y56" s="191"/>
+      <c r="W56" s="195"/>
+      <c r="X56" s="204"/>
+      <c r="Y56" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13394,6 +13389,11 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13483,18 +13483,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="205" t="s">
+      <c r="B2" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="207"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="188"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13502,10 +13502,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="211"/>
+      <c r="C4" s="190"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13514,13 +13514,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="191" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="212"/>
-      <c r="C6" s="212"/>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13544,22 +13544,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="180" t="s">
+      <c r="W6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="198" t="s">
+      <c r="X6" s="213" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="183" t="s">
+      <c r="Y6" s="200" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="213"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
+      <c r="A7" s="193"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13585,16 +13585,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="199"/>
-      <c r="Y7" s="184"/>
+      <c r="W7" s="198"/>
+      <c r="X7" s="214"/>
+      <c r="Y7" s="201"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="188"/>
-      <c r="B8" s="215"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="A8" s="195"/>
+      <c r="B8" s="196"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13620,9 +13620,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="181"/>
-      <c r="X8" s="199"/>
-      <c r="Y8" s="184"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="214"/>
+      <c r="Y8" s="201"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13691,9 +13691,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="182"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="185"/>
+      <c r="W9" s="199"/>
+      <c r="X9" s="215"/>
+      <c r="Y9" s="202"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15583,12 +15583,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <selection pane="topRight" activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15605,15 +15605,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="20" width="11.28515625" style="77" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" style="77" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="77" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="21" width="11.28515625" style="77" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" style="77" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="77" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:23" ht="13.5" thickBot="1">
+    <row r="1" spans="1:24" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:24" ht="13.5" thickBot="1">
       <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
@@ -15621,29 +15621,29 @@
       <c r="D2" s="221"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="B3" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="135">
-        <f>SUM(I8:T8)</f>
-        <v>36</v>
+        <f>SUM(I8:U8)</f>
+        <v>39</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:23" ht="13.5" thickBot="1">
+    <row r="4" spans="1:24" ht="13.5" thickBot="1">
       <c r="B4" s="224" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="225"/>
       <c r="D4" s="137">
-        <f>W39</f>
-        <v>48.275862068965509</v>
+        <f>X39</f>
+        <v>47.214854111405835</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:23" ht="15">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="226" t="s">
         <v>520</v>
       </c>
@@ -15692,17 +15692,20 @@
       <c r="T6" s="139">
         <v>42419</v>
       </c>
-      <c r="U6" s="227" t="s">
+      <c r="U6" s="139">
+        <v>42426</v>
+      </c>
+      <c r="V6" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="227" t="s">
+      <c r="W6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="218" t="s">
+      <c r="X6" s="218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="226"/>
       <c r="B7" s="226"/>
       <c r="C7" s="226"/>
@@ -15751,11 +15754,14 @@
       <c r="T7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="U7" s="227"/>
+      <c r="U7" s="142" t="s">
+        <v>521</v>
+      </c>
       <c r="V7" s="227"/>
-      <c r="W7" s="218"/>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="W7" s="227"/>
+      <c r="X7" s="218"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="226"/>
@@ -15804,11 +15810,14 @@
       <c r="T8" s="159">
         <v>3</v>
       </c>
-      <c r="U8" s="227"/>
+      <c r="U8" s="159">
+        <v>3</v>
+      </c>
       <c r="V8" s="227"/>
-      <c r="W8" s="218"/>
-    </row>
-    <row r="9" spans="1:23" ht="13.5" thickBot="1">
+      <c r="W8" s="227"/>
+      <c r="X8" s="218"/>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15869,11 +15878,14 @@
       <c r="T9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="U9" s="227"/>
+      <c r="U9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="V9" s="227"/>
-      <c r="W9" s="218"/>
-    </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W9" s="227"/>
+      <c r="X9" s="218"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15924,20 +15936,21 @@
       <c r="T10" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U10" s="143">
-        <f>COUNTIF(I10:T10,"P")</f>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143">
+        <f>COUNTIF(I10:U10,"P")</f>
         <v>10</v>
       </c>
-      <c r="V10" s="146">
-        <f>COUNTBLANK(I10:T10)</f>
-        <v>2</v>
-      </c>
-      <c r="W10" s="156">
-        <f>U10*100/SUM(U10:V10)</f>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1">
+      <c r="W10" s="146">
+        <f>COUNTBLANK(I10:U10)</f>
+        <v>3</v>
+      </c>
+      <c r="X10" s="156">
+        <f>V10*100/SUM(V10:W10)</f>
+        <v>76.92307692307692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -15990,20 +16003,23 @@
         <v>104</v>
       </c>
       <c r="T11" s="143"/>
-      <c r="U11" s="143">
-        <f t="shared" ref="U11:U38" si="0">COUNTIF(I11:T11,"P")</f>
-        <v>11</v>
-      </c>
-      <c r="V11" s="146">
-        <f t="shared" ref="V11:V38" si="1">COUNTBLANK(I11:T11)</f>
+      <c r="U11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="143">
+        <f t="shared" ref="V11:V38" si="0">COUNTIF(I11:U11,"P")</f>
+        <v>12</v>
+      </c>
+      <c r="W11" s="146">
+        <f t="shared" ref="W11:W38" si="1">COUNTBLANK(I11:U11)</f>
         <v>1</v>
       </c>
-      <c r="W11" s="156">
-        <f>U11*100/SUM(U11:V11)</f>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1">
+      <c r="X11" s="156">
+        <f>V11*100/SUM(V11:W11)</f>
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16058,20 +16074,23 @@
       <c r="T12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U12" s="143">
+      <c r="U12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V12" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V12" s="146">
+        <v>13</v>
+      </c>
+      <c r="W12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="156">
-        <f t="shared" ref="W12:W38" si="2">U12*100/SUM(U12:V12)</f>
+      <c r="X12" s="156">
+        <f t="shared" ref="X12:X38" si="2">V12*100/SUM(V12:W12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1">
+    <row r="13" spans="1:24" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16122,20 +16141,23 @@
       <c r="T13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U13" s="143">
+      <c r="U13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V13" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V13" s="146">
+        <v>11</v>
+      </c>
+      <c r="W13" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W13" s="156">
+      <c r="X13" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16168,20 +16190,21 @@
       <c r="R14" s="143"/>
       <c r="S14" s="143"/>
       <c r="T14" s="143"/>
-      <c r="U14" s="143">
+      <c r="U14" s="143"/>
+      <c r="V14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V14" s="146">
+      <c r="W14" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W14" s="156">
+        <v>12</v>
+      </c>
+      <c r="X14" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16212,20 +16235,21 @@
       <c r="R15" s="143"/>
       <c r="S15" s="143"/>
       <c r="T15" s="143"/>
-      <c r="U15" s="143">
+      <c r="U15" s="143"/>
+      <c r="V15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V15" s="146">
+      <c r="W15" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W15" s="156">
+        <v>13</v>
+      </c>
+      <c r="X15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="173" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:24" s="173" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16278,20 +16302,23 @@
       <c r="T16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="U16" s="143">
+      <c r="U16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="V16" s="146">
+        <v>12</v>
+      </c>
+      <c r="W16" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W16" s="172">
+      <c r="X16" s="172">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1">
+        <v>92.307692307692307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16342,20 +16369,23 @@
       <c r="T17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U17" s="143">
+      <c r="U17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V17" s="146">
+        <v>11</v>
+      </c>
+      <c r="W17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W17" s="156">
+      <c r="X17" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16406,20 +16436,23 @@
       <c r="T18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U18" s="143">
+      <c r="U18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V18" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="V18" s="146">
+        <v>11</v>
+      </c>
+      <c r="W18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="W18" s="156">
+      <c r="X18" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16474,20 +16507,23 @@
       <c r="T19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U19" s="143">
+      <c r="U19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V19" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V19" s="146">
+        <v>13</v>
+      </c>
+      <c r="W19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W19" s="156">
+      <c r="X19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:24" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16518,20 +16554,21 @@
       <c r="R20" s="143"/>
       <c r="S20" s="143"/>
       <c r="T20" s="143"/>
-      <c r="U20" s="143">
+      <c r="U20" s="143"/>
+      <c r="V20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V20" s="146">
+      <c r="W20" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W20" s="156">
+        <v>13</v>
+      </c>
+      <c r="X20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1">
+    <row r="21" spans="1:24" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16578,20 +16615,21 @@
         <v>104</v>
       </c>
       <c r="T21" s="143"/>
-      <c r="U21" s="143">
+      <c r="U21" s="143"/>
+      <c r="V21" s="143">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="V21" s="146">
+      <c r="W21" s="146">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W21" s="156">
+        <v>5</v>
+      </c>
+      <c r="X21" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1">
+        <v>61.53846153846154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16622,20 +16660,21 @@
       <c r="R22" s="143"/>
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
-      <c r="U22" s="143">
+      <c r="U22" s="143"/>
+      <c r="V22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V22" s="146">
+      <c r="W22" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W22" s="156">
+        <v>13</v>
+      </c>
+      <c r="X22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1">
+    <row r="23" spans="1:24" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16688,20 +16727,21 @@
       <c r="T23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U23" s="143">
+      <c r="U23" s="143"/>
+      <c r="V23" s="143">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="V23" s="146">
+      <c r="W23" s="146">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W23" s="156">
+        <v>2</v>
+      </c>
+      <c r="X23" s="156">
         <f t="shared" si="2"/>
-        <v>91.666666666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1">
+        <v>84.615384615384613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16746,20 +16786,21 @@
       <c r="R24" s="143"/>
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
-      <c r="U24" s="143">
+      <c r="U24" s="143"/>
+      <c r="V24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V24" s="146">
+      <c r="W24" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W24" s="156">
+        <v>6</v>
+      </c>
+      <c r="X24" s="156">
         <f t="shared" si="2"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1">
+        <v>53.846153846153847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16792,20 +16833,21 @@
       <c r="R25" s="143"/>
       <c r="S25" s="143"/>
       <c r="T25" s="143"/>
-      <c r="U25" s="143">
+      <c r="U25" s="143"/>
+      <c r="V25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V25" s="146">
+      <c r="W25" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W25" s="156">
+        <v>12</v>
+      </c>
+      <c r="X25" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16838,20 +16880,21 @@
       <c r="R26" s="143"/>
       <c r="S26" s="143"/>
       <c r="T26" s="143"/>
-      <c r="U26" s="143">
+      <c r="U26" s="143"/>
+      <c r="V26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V26" s="146">
+      <c r="W26" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W26" s="156">
+        <v>12</v>
+      </c>
+      <c r="X26" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -16894,20 +16937,21 @@
       <c r="R27" s="143"/>
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
-      <c r="U27" s="143">
+      <c r="U27" s="143"/>
+      <c r="V27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="V27" s="146">
+      <c r="W27" s="146">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W27" s="156">
+        <v>7</v>
+      </c>
+      <c r="X27" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -16948,20 +16992,23 @@
         <v>104</v>
       </c>
       <c r="T28" s="143"/>
-      <c r="U28" s="143">
+      <c r="U28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V28" s="143">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="V28" s="146">
+        <v>6</v>
+      </c>
+      <c r="W28" s="146">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W28" s="156">
+      <c r="X28" s="156">
         <f t="shared" si="2"/>
-        <v>41.666666666666664</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -16998,20 +17045,21 @@
       <c r="R29" s="143"/>
       <c r="S29" s="143"/>
       <c r="T29" s="143"/>
-      <c r="U29" s="143">
+      <c r="U29" s="143"/>
+      <c r="V29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="V29" s="146">
+      <c r="W29" s="146">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="W29" s="156">
+        <v>10</v>
+      </c>
+      <c r="X29" s="156">
         <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" thickBot="1">
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17066,20 +17114,23 @@
       <c r="T30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U30" s="143">
+      <c r="U30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V30" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="V30" s="146">
+        <v>13</v>
+      </c>
+      <c r="W30" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W30" s="156">
+      <c r="X30" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1">
+    <row r="31" spans="1:24" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17110,20 +17161,21 @@
       <c r="R31" s="143"/>
       <c r="S31" s="143"/>
       <c r="T31" s="143"/>
-      <c r="U31" s="143">
+      <c r="U31" s="143"/>
+      <c r="V31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V31" s="146">
+      <c r="W31" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W31" s="156">
+        <v>13</v>
+      </c>
+      <c r="X31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" thickBot="1">
+    <row r="32" spans="1:24" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17162,20 +17214,21 @@
       <c r="T32" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U32" s="143">
+      <c r="U32" s="143"/>
+      <c r="V32" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="V32" s="146">
+      <c r="W32" s="146">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="W32" s="156">
+        <v>9</v>
+      </c>
+      <c r="X32" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" thickBot="1">
+        <v>30.76923076923077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17218,20 +17271,21 @@
       <c r="T33" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U33" s="143">
+      <c r="U33" s="143"/>
+      <c r="V33" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="V33" s="146">
+      <c r="W33" s="146">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W33" s="156">
+        <v>7</v>
+      </c>
+      <c r="X33" s="156">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" thickBot="1">
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17280,20 +17334,23 @@
       <c r="T34" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U34" s="143">
+      <c r="U34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="V34" s="143">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="V34" s="146">
+        <v>10</v>
+      </c>
+      <c r="W34" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="W34" s="156">
+      <c r="X34" s="156">
         <f t="shared" si="2"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1">
+        <v>76.92307692307692</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17324,20 +17381,21 @@
       <c r="R35" s="143"/>
       <c r="S35" s="143"/>
       <c r="T35" s="143"/>
-      <c r="U35" s="143">
+      <c r="U35" s="143"/>
+      <c r="V35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V35" s="146">
+      <c r="W35" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W35" s="156">
+        <v>13</v>
+      </c>
+      <c r="X35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" thickBot="1">
+    <row r="36" spans="1:24" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17364,20 +17422,21 @@
       <c r="R36" s="143"/>
       <c r="S36" s="143"/>
       <c r="T36" s="143"/>
-      <c r="U36" s="143">
+      <c r="U36" s="143"/>
+      <c r="V36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V36" s="146">
+      <c r="W36" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="W36" s="156">
+        <v>13</v>
+      </c>
+      <c r="X36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" thickBot="1">
+    <row r="37" spans="1:24" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17420,20 +17479,21 @@
       <c r="T37" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="U37" s="143">
+      <c r="U37" s="143"/>
+      <c r="V37" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="V37" s="146">
+      <c r="W37" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W37" s="156">
+        <v>6</v>
+      </c>
+      <c r="X37" s="156">
         <f t="shared" si="2"/>
-        <v>58.333333333333336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" thickBot="1">
+        <v>53.846153846153847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17464,20 +17524,21 @@
       <c r="R38" s="143"/>
       <c r="S38" s="143"/>
       <c r="T38" s="143"/>
-      <c r="U38" s="143">
+      <c r="U38" s="143"/>
+      <c r="V38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="V38" s="146">
+      <c r="W38" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="W38" s="156">
+        <v>12</v>
+      </c>
+      <c r="X38" s="156">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15">
+        <v>7.6923076923076925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17489,7 +17550,7 @@
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
       <c r="I39" s="149">
-        <f t="shared" ref="I39:T39" si="3">COUNTIF(I10:I38,"p")</f>
+        <f t="shared" ref="I39:U39" si="3">COUNTIF(I10:I38,"p")</f>
         <v>18</v>
       </c>
       <c r="J39" s="149">
@@ -17533,26 +17594,29 @@
         <v>10</v>
       </c>
       <c r="T39" s="149">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T39" si="4">COUNTIF(T10:T38,"p")</f>
         <v>13</v>
       </c>
-      <c r="U39" s="149"/>
-      <c r="V39" s="150"/>
-      <c r="W39" s="157">
-        <f>AVERAGE(W10:W38)</f>
-        <v>48.275862068965509</v>
+      <c r="U39" s="149">
+        <v>10</v>
+      </c>
+      <c r="V39" s="149"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="157">
+        <f>AVERAGE(X10:X38)</f>
+        <v>47.214854111405835</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:W39"/>
+  <autoFilter ref="A9:X39"/>
   <mergeCells count="7">
-    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="X6:X9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="U6:U9"/>
     <mergeCell ref="V6:V9"/>
+    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$X$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$AC$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="583">
   <si>
     <t>S No</t>
   </si>
@@ -1847,6 +1847,12 @@
   </si>
   <si>
     <t>rashik.nahian@northsouth.edu</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>mysql/wp</t>
   </si>
 </sst>
 </file>
@@ -15583,12 +15589,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="U39" sqref="U39"/>
+      <selection pane="topRight" activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15605,15 +15611,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="21" width="11.28515625" style="77" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="77" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="77" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="26" width="11.28515625" style="77" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="77" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="77" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:24" ht="13.5" thickBot="1">
+    <row r="1" spans="1:29" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:29" ht="13.5" thickBot="1">
       <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
@@ -15621,29 +15627,29 @@
       <c r="D2" s="221"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:29">
       <c r="B3" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="135">
-        <f>SUM(I8:U8)</f>
-        <v>39</v>
+        <f>SUM(I8:Z8)</f>
+        <v>54</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:24" ht="13.5" thickBot="1">
+    <row r="4" spans="1:29" ht="13.5" thickBot="1">
       <c r="B4" s="224" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="225"/>
       <c r="D4" s="137">
-        <f>X39</f>
-        <v>47.214854111405835</v>
+        <f>AC39</f>
+        <v>44.444444444444443</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:29" ht="15">
       <c r="A6" s="226" t="s">
         <v>520</v>
       </c>
@@ -15695,17 +15701,32 @@
       <c r="U6" s="139">
         <v>42426</v>
       </c>
-      <c r="V6" s="227" t="s">
+      <c r="V6" s="139">
+        <v>42429</v>
+      </c>
+      <c r="W6" s="139">
+        <v>42433</v>
+      </c>
+      <c r="X6" s="139">
+        <v>42436</v>
+      </c>
+      <c r="Y6" s="139">
+        <v>42443</v>
+      </c>
+      <c r="Z6" s="139">
+        <v>42445</v>
+      </c>
+      <c r="AA6" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="227" t="s">
+      <c r="AB6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="218" t="s">
+      <c r="AC6" s="218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:29">
       <c r="A7" s="226"/>
       <c r="B7" s="226"/>
       <c r="C7" s="226"/>
@@ -15757,11 +15778,26 @@
       <c r="U7" s="142" t="s">
         <v>521</v>
       </c>
-      <c r="V7" s="227"/>
-      <c r="W7" s="227"/>
-      <c r="X7" s="218"/>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="V7" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="W7" s="142" t="s">
+        <v>521</v>
+      </c>
+      <c r="X7" s="142" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y7" s="142" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z7" s="142" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA7" s="227"/>
+      <c r="AB7" s="227"/>
+      <c r="AC7" s="218"/>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="226"/>
@@ -15813,11 +15849,26 @@
       <c r="U8" s="159">
         <v>3</v>
       </c>
-      <c r="V8" s="227"/>
-      <c r="W8" s="227"/>
-      <c r="X8" s="218"/>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" thickBot="1">
+      <c r="V8" s="159">
+        <v>3</v>
+      </c>
+      <c r="W8" s="159">
+        <v>3</v>
+      </c>
+      <c r="X8" s="159">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="159">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="159">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="227"/>
+      <c r="AB8" s="227"/>
+      <c r="AC8" s="218"/>
+    </row>
+    <row r="9" spans="1:29" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15881,11 +15932,26 @@
       <c r="U9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="218"/>
-    </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1">
+      <c r="V9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="W9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="X9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z9" s="141" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA9" s="227"/>
+      <c r="AB9" s="227"/>
+      <c r="AC9" s="218"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -15937,20 +16003,25 @@
         <v>104</v>
       </c>
       <c r="U10" s="143"/>
-      <c r="V10" s="143">
-        <f>COUNTIF(I10:U10,"P")</f>
+      <c r="V10" s="143"/>
+      <c r="W10" s="143"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="143"/>
+      <c r="Z10" s="143"/>
+      <c r="AA10" s="143">
+        <f>COUNTIF(I10:Z10,"P")</f>
         <v>10</v>
       </c>
-      <c r="W10" s="146">
-        <f>COUNTBLANK(I10:U10)</f>
-        <v>3</v>
-      </c>
-      <c r="X10" s="156">
-        <f>V10*100/SUM(V10:W10)</f>
-        <v>76.92307692307692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1">
+      <c r="AB10" s="146">
+        <f>COUNTBLANK(I10:Z10)</f>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="156">
+        <f>AA10*100/SUM(AA10:AB10)</f>
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16006,20 +16077,33 @@
       <c r="U11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="143">
-        <f t="shared" ref="V11:V38" si="0">COUNTIF(I11:U11,"P")</f>
-        <v>12</v>
-      </c>
-      <c r="W11" s="146">
-        <f t="shared" ref="W11:W38" si="1">COUNTBLANK(I11:U11)</f>
-        <v>1</v>
-      </c>
-      <c r="X11" s="156">
-        <f>V11*100/SUM(V11:W11)</f>
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1">
+      <c r="V11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W11" s="143"/>
+      <c r="X11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA11" s="143">
+        <f t="shared" ref="AA11:AA38" si="0">COUNTIF(I11:Z11,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="AB11" s="146">
+        <f t="shared" ref="AB11:AB38" si="1">COUNTBLANK(I11:Z11)</f>
+        <v>2</v>
+      </c>
+      <c r="AC11" s="156">
+        <f>AA11*100/SUM(AA11:AB11)</f>
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16077,20 +16161,35 @@
       <c r="U12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V12" s="143">
+      <c r="V12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA12" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W12" s="146">
+        <v>18</v>
+      </c>
+      <c r="AB12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X12" s="156">
-        <f t="shared" ref="X12:X38" si="2">V12*100/SUM(V12:W12)</f>
+      <c r="AC12" s="156">
+        <f t="shared" ref="AC12:AC38" si="2">AA12*100/SUM(AA12:AB12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16144,20 +16243,33 @@
       <c r="U13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V13" s="143">
+      <c r="V13" s="143"/>
+      <c r="W13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA13" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W13" s="146">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X13" s="156">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16191,20 +16303,25 @@
       <c r="S14" s="143"/>
       <c r="T14" s="143"/>
       <c r="U14" s="143"/>
-      <c r="V14" s="143">
+      <c r="V14" s="143"/>
+      <c r="W14" s="143"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="143"/>
+      <c r="Z14" s="143"/>
+      <c r="AA14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W14" s="146">
+      <c r="AB14" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X14" s="156">
+        <v>17</v>
+      </c>
+      <c r="AC14" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" ht="15.75" thickBot="1">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16236,20 +16353,25 @@
       <c r="S15" s="143"/>
       <c r="T15" s="143"/>
       <c r="U15" s="143"/>
-      <c r="V15" s="143">
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15" s="146">
+      <c r="AB15" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X15" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="173" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:29" s="173" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16305,20 +16427,35 @@
       <c r="U16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="V16" s="143">
+      <c r="V16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="W16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="X16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA16" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="W16" s="146">
+        <v>17</v>
+      </c>
+      <c r="AB16" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="X16" s="172">
+      <c r="AC16" s="172">
         <f t="shared" si="2"/>
-        <v>92.307692307692307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="15.75" thickBot="1">
+        <v>94.444444444444443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16372,20 +16509,35 @@
       <c r="U17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V17" s="143">
+      <c r="V17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA17" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W17" s="146">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X17" s="156">
+      <c r="AC17" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16439,20 +16591,35 @@
       <c r="U18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V18" s="143">
+      <c r="V18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA18" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W18" s="146">
+        <v>16</v>
+      </c>
+      <c r="AB18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X18" s="156">
+      <c r="AC18" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="15.75" thickBot="1">
+        <v>88.888888888888886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16510,20 +16677,35 @@
       <c r="U19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V19" s="143">
+      <c r="V19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA19" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W19" s="146">
+        <v>18</v>
+      </c>
+      <c r="AB19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X19" s="156">
+      <c r="AC19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:29" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16555,20 +16737,25 @@
       <c r="S20" s="143"/>
       <c r="T20" s="143"/>
       <c r="U20" s="143"/>
-      <c r="V20" s="143">
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W20" s="146">
+      <c r="AB20" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X20" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" thickBot="1">
+    <row r="21" spans="1:29" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16616,20 +16803,33 @@
       </c>
       <c r="T21" s="143"/>
       <c r="U21" s="143"/>
-      <c r="V21" s="143">
+      <c r="V21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="143">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="W21" s="146">
+        <v>12</v>
+      </c>
+      <c r="AB21" s="146">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="X21" s="156">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="156">
         <f t="shared" si="2"/>
-        <v>61.53846153846154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="15.75" thickBot="1">
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16661,20 +16861,25 @@
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
       <c r="U22" s="143"/>
-      <c r="V22" s="143">
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="143"/>
+      <c r="AA22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W22" s="146">
+      <c r="AB22" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X22" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" thickBot="1">
+    <row r="23" spans="1:29" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16728,20 +16933,33 @@
         <v>104</v>
       </c>
       <c r="U23" s="143"/>
-      <c r="V23" s="143">
+      <c r="V23" s="143"/>
+      <c r="W23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA23" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W23" s="146">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="146">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="X23" s="156">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="156">
         <f t="shared" si="2"/>
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" thickBot="1">
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -16787,20 +17005,25 @@
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
       <c r="U24" s="143"/>
-      <c r="V24" s="143">
+      <c r="V24" s="143"/>
+      <c r="W24" s="143"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="143"/>
+      <c r="Z24" s="143"/>
+      <c r="AA24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W24" s="146">
+      <c r="AB24" s="146">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="X24" s="156">
+        <v>11</v>
+      </c>
+      <c r="AC24" s="156">
         <f t="shared" si="2"/>
-        <v>53.846153846153847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="15.75" thickBot="1">
+        <v>38.888888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -16834,20 +17057,25 @@
       <c r="S25" s="143"/>
       <c r="T25" s="143"/>
       <c r="U25" s="143"/>
-      <c r="V25" s="143">
+      <c r="V25" s="143"/>
+      <c r="W25" s="143"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="143"/>
+      <c r="Z25" s="143"/>
+      <c r="AA25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W25" s="146">
+      <c r="AB25" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X25" s="156">
+        <v>17</v>
+      </c>
+      <c r="AC25" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="15.75" thickBot="1">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -16881,20 +17109,25 @@
       <c r="S26" s="143"/>
       <c r="T26" s="143"/>
       <c r="U26" s="143"/>
-      <c r="V26" s="143">
+      <c r="V26" s="143"/>
+      <c r="W26" s="143"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="143"/>
+      <c r="Z26" s="143"/>
+      <c r="AA26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W26" s="146">
+      <c r="AB26" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X26" s="156">
+        <v>17</v>
+      </c>
+      <c r="AC26" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="15.75" thickBot="1">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -16938,20 +17171,25 @@
       <c r="S27" s="143"/>
       <c r="T27" s="143"/>
       <c r="U27" s="143"/>
-      <c r="V27" s="143">
+      <c r="V27" s="143"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="W27" s="146">
+      <c r="AB27" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X27" s="156">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -16995,20 +17233,33 @@
       <c r="U28" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V28" s="143">
+      <c r="V28" s="143"/>
+      <c r="W28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA28" s="143">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="W28" s="146">
+        <v>10</v>
+      </c>
+      <c r="AB28" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X28" s="156">
+        <v>8</v>
+      </c>
+      <c r="AC28" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" thickBot="1">
+        <v>55.555555555555557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17046,20 +17297,25 @@
       <c r="S29" s="143"/>
       <c r="T29" s="143"/>
       <c r="U29" s="143"/>
-      <c r="V29" s="143">
+      <c r="V29" s="143"/>
+      <c r="W29" s="143"/>
+      <c r="X29" s="143"/>
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="143"/>
+      <c r="AA29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="W29" s="146">
+      <c r="AB29" s="146">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="X29" s="156">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="156">
         <f t="shared" si="2"/>
-        <v>23.076923076923077</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="15.75" thickBot="1">
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17117,20 +17373,35 @@
       <c r="U30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V30" s="143">
+      <c r="V30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="W30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA30" s="143">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="W30" s="146">
+        <v>18</v>
+      </c>
+      <c r="AB30" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X30" s="156">
+      <c r="AC30" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" thickBot="1">
+    <row r="31" spans="1:29" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17162,20 +17433,25 @@
       <c r="S31" s="143"/>
       <c r="T31" s="143"/>
       <c r="U31" s="143"/>
-      <c r="V31" s="143">
+      <c r="V31" s="143"/>
+      <c r="W31" s="143"/>
+      <c r="X31" s="143"/>
+      <c r="Y31" s="143"/>
+      <c r="Z31" s="143"/>
+      <c r="AA31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W31" s="146">
+      <c r="AB31" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X31" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" thickBot="1">
+    <row r="32" spans="1:29" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17215,20 +17491,25 @@
         <v>104</v>
       </c>
       <c r="U32" s="143"/>
-      <c r="V32" s="143">
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
+      <c r="AA32" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W32" s="146">
+      <c r="AB32" s="146">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="X32" s="156">
+        <v>14</v>
+      </c>
+      <c r="AC32" s="156">
         <f t="shared" si="2"/>
-        <v>30.76923076923077</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1">
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17272,20 +17553,25 @@
         <v>104</v>
       </c>
       <c r="U33" s="143"/>
-      <c r="V33" s="143">
+      <c r="V33" s="143"/>
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="W33" s="146">
+      <c r="AB33" s="146">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X33" s="156">
+        <v>12</v>
+      </c>
+      <c r="AC33" s="156">
         <f t="shared" si="2"/>
-        <v>46.153846153846153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1">
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17337,20 +17623,33 @@
       <c r="U34" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="V34" s="143">
+      <c r="V34" s="143"/>
+      <c r="W34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="X34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA34" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="W34" s="146">
+        <v>14</v>
+      </c>
+      <c r="AB34" s="146">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="X34" s="156">
+        <v>4</v>
+      </c>
+      <c r="AC34" s="156">
         <f t="shared" si="2"/>
-        <v>76.92307692307692</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" ht="15.75" thickBot="1">
+        <v>77.777777777777771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17382,20 +17681,25 @@
       <c r="S35" s="143"/>
       <c r="T35" s="143"/>
       <c r="U35" s="143"/>
-      <c r="V35" s="143">
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W35" s="146">
+      <c r="AB35" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X35" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1">
+    <row r="36" spans="1:29" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17423,20 +17727,25 @@
       <c r="S36" s="143"/>
       <c r="T36" s="143"/>
       <c r="U36" s="143"/>
-      <c r="V36" s="143">
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W36" s="146">
+      <c r="AB36" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="X36" s="156">
+        <v>18</v>
+      </c>
+      <c r="AC36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="15.75" thickBot="1">
+    <row r="37" spans="1:29" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17480,20 +17789,25 @@
         <v>104</v>
       </c>
       <c r="U37" s="143"/>
-      <c r="V37" s="143">
+      <c r="V37" s="143"/>
+      <c r="W37" s="143"/>
+      <c r="X37" s="143"/>
+      <c r="Y37" s="143"/>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W37" s="146">
+      <c r="AB37" s="146">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="X37" s="156">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="156">
         <f t="shared" si="2"/>
-        <v>53.846153846153847</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" ht="15.75" thickBot="1">
+        <v>38.888888888888886</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17525,20 +17839,25 @@
       <c r="S38" s="143"/>
       <c r="T38" s="143"/>
       <c r="U38" s="143"/>
-      <c r="V38" s="143">
+      <c r="V38" s="143"/>
+      <c r="W38" s="143"/>
+      <c r="X38" s="143"/>
+      <c r="Y38" s="143"/>
+      <c r="Z38" s="143"/>
+      <c r="AA38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="W38" s="146">
+      <c r="AB38" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="X38" s="156">
+        <v>17</v>
+      </c>
+      <c r="AC38" s="156">
         <f t="shared" si="2"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" ht="15">
+        <v>5.5555555555555554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17550,7 +17869,7 @@
       <c r="G39" s="145"/>
       <c r="H39" s="145"/>
       <c r="I39" s="149">
-        <f t="shared" ref="I39:U39" si="3">COUNTIF(I10:I38,"p")</f>
+        <f t="shared" ref="I39:S39" si="3">COUNTIF(I10:I38,"p")</f>
         <v>18</v>
       </c>
       <c r="J39" s="149">
@@ -17600,23 +17919,38 @@
       <c r="U39" s="149">
         <v>10</v>
       </c>
-      <c r="V39" s="149"/>
-      <c r="W39" s="150"/>
-      <c r="X39" s="157">
-        <f>AVERAGE(X10:X38)</f>
-        <v>47.214854111405835</v>
+      <c r="V39" s="149">
+        <v>8</v>
+      </c>
+      <c r="W39" s="149">
+        <v>9</v>
+      </c>
+      <c r="X39" s="149">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="149">
+        <v>12</v>
+      </c>
+      <c r="Z39" s="149">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="149"/>
+      <c r="AB39" s="150"/>
+      <c r="AC39" s="157">
+        <f>AVERAGE(AC10:AC38)</f>
+        <v>44.444444444444443</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:X39"/>
+  <autoFilter ref="A9:AC39"/>
   <mergeCells count="7">
-    <mergeCell ref="X6:X9"/>
+    <mergeCell ref="AC6:AC9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="V6:V9"/>
-    <mergeCell ref="W6:W9"/>
+    <mergeCell ref="AA6:AA9"/>
+    <mergeCell ref="AB6:AB9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$AC$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$AD$39</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="583">
   <si>
     <t>S No</t>
   </si>
@@ -3279,6 +3279,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3312,9 +3375,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3324,67 +3384,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3788,18 +3788,18 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:W7)</f>
         <v>48</v>
@@ -3807,10 +3807,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>Z46</f>
         <v>84.571678321678334</v>
@@ -3819,13 +3819,13 @@
     </row>
     <row r="5" spans="1:26" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:26" ht="15">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="78" t="s">
         <v>18</v>
       </c>
@@ -3878,22 +3878,22 @@
       <c r="W6" s="111">
         <v>42322</v>
       </c>
-      <c r="X6" s="197" t="s">
+      <c r="X6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="213" t="s">
+      <c r="Y6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="200" t="s">
+      <c r="Z6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="79" t="s">
         <v>16</v>
       </c>
@@ -3948,16 +3948,16 @@
       <c r="W7" s="112">
         <v>3</v>
       </c>
-      <c r="X7" s="198"/>
-      <c r="Y7" s="214"/>
-      <c r="Z7" s="201"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="184"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="80" t="s">
         <v>19</v>
       </c>
@@ -4012,9 +4012,9 @@
       <c r="W8" s="113" t="s">
         <v>285</v>
       </c>
-      <c r="X8" s="198"/>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="201"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="184"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -4086,9 +4086,9 @@
       <c r="W9" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="215"/>
-      <c r="Z9" s="202"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="200"/>
+      <c r="Z9" s="185"/>
     </row>
     <row r="10" spans="1:26" ht="15">
       <c r="A10" s="41">
@@ -6761,15 +6761,15 @@
       </c>
     </row>
     <row r="46" spans="1:26" ht="15" customHeight="1">
-      <c r="A46" s="180"/>
-      <c r="B46" s="181"/>
-      <c r="C46" s="207" t="s">
+      <c r="A46" s="201"/>
+      <c r="B46" s="202"/>
+      <c r="C46" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="208"/>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="209"/>
+      <c r="D46" s="193"/>
+      <c r="E46" s="193"/>
+      <c r="F46" s="193"/>
+      <c r="G46" s="194"/>
       <c r="H46" s="27">
         <f t="shared" ref="H46:T46" si="3">COUNTIF(H10:H45,"P")</f>
         <v>23</v>
@@ -6834,25 +6834,25 @@
         <f>COUNTIF(W10:W45,"p")</f>
         <v>30</v>
       </c>
-      <c r="X46" s="191" t="s">
+      <c r="X46" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="Y46" s="203"/>
-      <c r="Z46" s="205">
+      <c r="Y46" s="187"/>
+      <c r="Z46" s="190">
         <f>AVERAGE(Z10:Z45)</f>
         <v>84.571678321678334</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A47" s="182"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="210" t="s">
+      <c r="A47" s="203"/>
+      <c r="B47" s="204"/>
+      <c r="C47" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="211"/>
-      <c r="E47" s="211"/>
-      <c r="F47" s="211"/>
-      <c r="G47" s="212"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="197"/>
       <c r="H47" s="31">
         <f t="shared" ref="H47:W47" si="4">COUNTBLANK(H10:H45)</f>
         <v>13</v>
@@ -6917,9 +6917,9 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="X47" s="195"/>
-      <c r="Y47" s="204"/>
-      <c r="Z47" s="206"/>
+      <c r="X47" s="188"/>
+      <c r="Y47" s="189"/>
+      <c r="Z47" s="191"/>
     </row>
     <row r="48" spans="1:26" s="99" customFormat="1" ht="15">
       <c r="A48" s="101">
@@ -7120,6 +7120,11 @@
   </sheetData>
   <autoFilter ref="A9:Q44"/>
   <mergeCells count="12">
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
     <mergeCell ref="X6:X9"/>
     <mergeCell ref="Z6:Z9"/>
     <mergeCell ref="X46:Y47"/>
@@ -7127,11 +7132,6 @@
     <mergeCell ref="C46:G46"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="Y6:Y9"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="Z10:Z45">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -7221,18 +7221,18 @@
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:Q7)</f>
         <v>45</v>
@@ -7240,10 +7240,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>T59</f>
         <v>84.476838354389372</v>
@@ -7252,13 +7252,13 @@
     </row>
     <row r="5" spans="1:20" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -7293,22 +7293,22 @@
       <c r="Q6" s="51">
         <v>42326</v>
       </c>
-      <c r="R6" s="197" t="s">
+      <c r="R6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="213" t="s">
+      <c r="S6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="200" t="s">
+      <c r="T6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -7345,16 +7345,16 @@
       <c r="Q7" s="6">
         <v>3</v>
       </c>
-      <c r="R7" s="198"/>
-      <c r="S7" s="214"/>
-      <c r="T7" s="201"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="199"/>
+      <c r="T7" s="184"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -7391,9 +7391,9 @@
       <c r="Q8" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="R8" s="198"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="201"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="184"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="120" t="s">
@@ -7447,9 +7447,9 @@
       <c r="Q9" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="R9" s="199"/>
-      <c r="S9" s="215"/>
-      <c r="T9" s="202"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="185"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" customHeight="1">
       <c r="A10" s="12">
@@ -10347,13 +10347,13 @@
     <row r="59" spans="1:20" ht="15.75" customHeight="1">
       <c r="A59" s="216"/>
       <c r="B59" s="217"/>
-      <c r="C59" s="207" t="s">
+      <c r="C59" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="208"/>
-      <c r="E59" s="208"/>
-      <c r="F59" s="208"/>
-      <c r="G59" s="209"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="193"/>
+      <c r="F59" s="193"/>
+      <c r="G59" s="194"/>
       <c r="H59" s="27">
         <f t="shared" ref="H59:Q59" si="4">COUNTIF(H10:H58,"P")</f>
         <v>38</v>
@@ -10394,25 +10394,25 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="R59" s="191" t="s">
+      <c r="R59" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="S59" s="203"/>
-      <c r="T59" s="205">
+      <c r="S59" s="187"/>
+      <c r="T59" s="190">
         <f>AVERAGE(T10:T58)</f>
         <v>84.476838354389372</v>
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A60" s="182"/>
-      <c r="B60" s="183"/>
-      <c r="C60" s="210" t="s">
+      <c r="A60" s="203"/>
+      <c r="B60" s="204"/>
+      <c r="C60" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="211"/>
-      <c r="E60" s="211"/>
-      <c r="F60" s="211"/>
-      <c r="G60" s="212"/>
+      <c r="D60" s="196"/>
+      <c r="E60" s="196"/>
+      <c r="F60" s="196"/>
+      <c r="G60" s="197"/>
       <c r="H60" s="31">
         <f>COUNTBLANK(H10:H58)</f>
         <v>11</v>
@@ -10453,12 +10453,17 @@
         <f>COUNTIF(Q11:Q58,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="R60" s="195"/>
-      <c r="S60" s="204"/>
-      <c r="T60" s="206"/>
+      <c r="R60" s="188"/>
+      <c r="S60" s="189"/>
+      <c r="T60" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="R6:R9"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="A59:B60"/>
     <mergeCell ref="C59:G59"/>
@@ -10466,11 +10471,6 @@
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="R6:R9"/>
   </mergeCells>
   <conditionalFormatting sqref="T10:T58">
     <cfRule type="iconSet" priority="1">
@@ -10580,18 +10580,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>18</v>
@@ -10599,10 +10599,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63">
         <f>Y55</f>
         <v>69.298245614035082</v>
@@ -10611,13 +10611,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -10649,22 +10649,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="197" t="s">
+      <c r="W6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="213" t="s">
+      <c r="X6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="200" t="s">
+      <c r="Y6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -10698,16 +10698,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="201"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="184"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -10741,9 +10741,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="201"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="184"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -10812,9 +10812,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="199"/>
-      <c r="X9" s="215"/>
-      <c r="Y9" s="202"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="185"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="71">
@@ -13234,15 +13234,15 @@
       </c>
     </row>
     <row r="55" spans="1:25">
-      <c r="A55" s="180"/>
-      <c r="B55" s="181"/>
-      <c r="C55" s="207" t="s">
+      <c r="A55" s="201"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="208"/>
-      <c r="E55" s="208"/>
-      <c r="F55" s="208"/>
-      <c r="G55" s="208"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="193"/>
+      <c r="F55" s="193"/>
+      <c r="G55" s="193"/>
       <c r="H55" s="74">
         <f t="shared" ref="H55:T55" si="3">COUNTIF(H10:H54,"P")</f>
         <v>22</v>
@@ -13303,25 +13303,25 @@
         <f>COUNTIF(V10:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W55" s="191" t="s">
+      <c r="W55" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="X55" s="203"/>
-      <c r="Y55" s="205">
+      <c r="X55" s="187"/>
+      <c r="Y55" s="190">
         <f>AVERAGE(Y10:Y54)</f>
         <v>69.298245614035082</v>
       </c>
     </row>
     <row r="56" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A56" s="182"/>
-      <c r="B56" s="183"/>
-      <c r="C56" s="210" t="s">
+      <c r="A56" s="203"/>
+      <c r="B56" s="204"/>
+      <c r="C56" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="211"/>
-      <c r="E56" s="211"/>
-      <c r="F56" s="211"/>
-      <c r="G56" s="211"/>
+      <c r="D56" s="196"/>
+      <c r="E56" s="196"/>
+      <c r="F56" s="196"/>
+      <c r="G56" s="196"/>
       <c r="H56" s="75">
         <f>COUNTBLANK(H10:H54)</f>
         <v>23</v>
@@ -13382,12 +13382,17 @@
         <f>COUNTIF(V11:V54,#REF!)</f>
         <v>0</v>
       </c>
-      <c r="W56" s="195"/>
-      <c r="X56" s="204"/>
-      <c r="Y56" s="206"/>
+      <c r="W56" s="188"/>
+      <c r="X56" s="189"/>
+      <c r="Y56" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:E8"/>
+    <mergeCell ref="W6:W9"/>
     <mergeCell ref="Y6:Y9"/>
     <mergeCell ref="A55:B56"/>
     <mergeCell ref="C55:G55"/>
@@ -13395,11 +13400,6 @@
     <mergeCell ref="Y55:Y56"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="X6:X9"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:E8"/>
-    <mergeCell ref="W6:W9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
@@ -13489,18 +13489,18 @@
   <sheetData>
     <row r="1" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="2" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="207"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:25">
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="209"/>
       <c r="D3" s="62">
         <f>SUM(H7:T7)</f>
         <v>6</v>
@@ -13508,10 +13508,10 @@
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:25" ht="13.5" thickBot="1">
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="210" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="190"/>
+      <c r="C4" s="211"/>
       <c r="D4" s="63" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -13520,13 +13520,13 @@
     </row>
     <row r="5" spans="1:25" ht="13.5" thickBot="1"/>
     <row r="6" spans="1:25" ht="15">
-      <c r="A6" s="191" t="s">
+      <c r="A6" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
       <c r="F6" s="49" t="s">
         <v>18</v>
       </c>
@@ -13550,22 +13550,22 @@
       <c r="T6" s="51"/>
       <c r="U6" s="52"/>
       <c r="V6" s="53"/>
-      <c r="W6" s="197" t="s">
+      <c r="W6" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="213" t="s">
+      <c r="X6" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="200" t="s">
+      <c r="Y6" s="183" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="22" t="s">
         <v>16</v>
       </c>
@@ -13591,16 +13591,16 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="198"/>
-      <c r="X7" s="214"/>
-      <c r="Y7" s="201"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="199"/>
+      <c r="Y7" s="184"/>
     </row>
     <row r="8" spans="1:25" ht="13.5" thickBot="1">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="215"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
       <c r="F8" s="55" t="s">
         <v>19</v>
       </c>
@@ -13626,9 +13626,9 @@
       <c r="T8" s="58"/>
       <c r="U8" s="58"/>
       <c r="V8" s="59"/>
-      <c r="W8" s="198"/>
-      <c r="X8" s="214"/>
-      <c r="Y8" s="201"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="184"/>
     </row>
     <row r="9" spans="1:25" ht="13.5" thickBot="1">
       <c r="A9" s="35" t="s">
@@ -13697,9 +13697,9 @@
       <c r="V9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="W9" s="199"/>
-      <c r="X9" s="215"/>
-      <c r="Y9" s="202"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="185"/>
     </row>
     <row r="10" spans="1:25" ht="15">
       <c r="A10" s="128">
@@ -15589,12 +15589,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="Z35" sqref="Z35"/>
+      <selection pane="topRight" activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15611,15 +15611,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="26" width="11.28515625" style="77" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" style="77" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="77" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="27" width="11.28515625" style="77" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" style="77" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="77" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:29" ht="13.5" thickBot="1">
+    <row r="1" spans="1:30" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:30" ht="13.5" thickBot="1">
       <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
@@ -15627,29 +15627,29 @@
       <c r="D2" s="221"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:30">
       <c r="B3" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="135">
-        <f>SUM(I8:Z8)</f>
-        <v>54</v>
+        <f>SUM(I8:AA8)</f>
+        <v>57</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:29" ht="13.5" thickBot="1">
+    <row r="4" spans="1:30" ht="13.5" thickBot="1">
       <c r="B4" s="224" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="225"/>
       <c r="D4" s="137">
-        <f>AC39</f>
-        <v>44.444444444444443</v>
+        <f>AD39</f>
+        <v>44.283121597096191</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:29" ht="15">
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" s="226" t="s">
         <v>520</v>
       </c>
@@ -15716,17 +15716,20 @@
       <c r="Z6" s="139">
         <v>42445</v>
       </c>
-      <c r="AA6" s="227" t="s">
+      <c r="AA6" s="139">
+        <v>42447</v>
+      </c>
+      <c r="AB6" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="AB6" s="227" t="s">
+      <c r="AC6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="AC6" s="218" t="s">
+      <c r="AD6" s="218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:30">
       <c r="A7" s="226"/>
       <c r="B7" s="226"/>
       <c r="C7" s="226"/>
@@ -15793,11 +15796,14 @@
       <c r="Z7" s="142" t="s">
         <v>582</v>
       </c>
-      <c r="AA7" s="227"/>
+      <c r="AA7" s="142" t="s">
+        <v>582</v>
+      </c>
       <c r="AB7" s="227"/>
-      <c r="AC7" s="218"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AC7" s="227"/>
+      <c r="AD7" s="218"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="226"/>
@@ -15864,11 +15870,14 @@
       <c r="Z8" s="159">
         <v>3</v>
       </c>
-      <c r="AA8" s="227"/>
+      <c r="AA8" s="159">
+        <v>3</v>
+      </c>
       <c r="AB8" s="227"/>
-      <c r="AC8" s="218"/>
-    </row>
-    <row r="9" spans="1:29" ht="13.5" thickBot="1">
+      <c r="AC8" s="227"/>
+      <c r="AD8" s="218"/>
+    </row>
+    <row r="9" spans="1:30" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15947,11 +15956,14 @@
       <c r="Z9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="AA9" s="227"/>
+      <c r="AA9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="AB9" s="227"/>
-      <c r="AC9" s="218"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="218"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16008,20 +16020,21 @@
       <c r="X10" s="143"/>
       <c r="Y10" s="143"/>
       <c r="Z10" s="143"/>
-      <c r="AA10" s="143">
-        <f>COUNTIF(I10:Z10,"P")</f>
+      <c r="AA10" s="143"/>
+      <c r="AB10" s="143">
+        <f>COUNTIF(I10:AA10,"P")</f>
         <v>10</v>
       </c>
-      <c r="AB10" s="146">
-        <f>COUNTBLANK(I10:Z10)</f>
-        <v>8</v>
-      </c>
-      <c r="AC10" s="156">
-        <f>AA10*100/SUM(AA10:AB10)</f>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AC10" s="146">
+        <f>COUNTBLANK(I10:AA10)</f>
+        <v>9</v>
+      </c>
+      <c r="AD10" s="156">
+        <f>AB10*100/SUM(AB10:AC10)</f>
+        <v>52.631578947368418</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16090,20 +16103,23 @@
       <c r="Z11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA11" s="143">
-        <f t="shared" ref="AA11:AA38" si="0">COUNTIF(I11:Z11,"P")</f>
-        <v>16</v>
-      </c>
-      <c r="AB11" s="146">
-        <f t="shared" ref="AB11:AB38" si="1">COUNTBLANK(I11:Z11)</f>
+      <c r="AA11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB11" s="143">
+        <f t="shared" ref="AB11:AB38" si="0">COUNTIF(I11:AA11,"P")</f>
+        <v>17</v>
+      </c>
+      <c r="AC11" s="146">
+        <f t="shared" ref="AC11:AC38" si="1">COUNTBLANK(I11:AA11)</f>
         <v>2</v>
       </c>
-      <c r="AC11" s="156">
-        <f>AA11*100/SUM(AA11:AB11)</f>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AD11" s="156">
+        <f>AB11*100/SUM(AB11:AC11)</f>
+        <v>89.473684210526315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16176,20 +16192,23 @@
       <c r="Z12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA12" s="143">
+      <c r="AA12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB12" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB12" s="146">
+        <v>19</v>
+      </c>
+      <c r="AC12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="156">
-        <f t="shared" ref="AC12:AC38" si="2">AA12*100/SUM(AA12:AB12)</f>
+      <c r="AD12" s="156">
+        <f t="shared" ref="AD12:AD38" si="2">AB12*100/SUM(AB12:AC12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.75" thickBot="1">
+    <row r="13" spans="1:30" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16256,20 +16275,23 @@
       <c r="Z13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA13" s="143">
+      <c r="AA13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB13" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AB13" s="146">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AC13" s="156">
+      <c r="AD13" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1">
+        <v>84.21052631578948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16308,20 +16330,21 @@
       <c r="X14" s="143"/>
       <c r="Y14" s="143"/>
       <c r="Z14" s="143"/>
-      <c r="AA14" s="143">
+      <c r="AA14" s="143"/>
+      <c r="AB14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB14" s="146">
+      <c r="AC14" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AC14" s="156">
+        <v>18</v>
+      </c>
+      <c r="AD14" s="156">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="15.75" thickBot="1">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16358,20 +16381,21 @@
       <c r="X15" s="143"/>
       <c r="Y15" s="143"/>
       <c r="Z15" s="143"/>
-      <c r="AA15" s="143">
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="146">
+      <c r="AC15" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC15" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="173" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:30" s="173" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16442,20 +16466,23 @@
       <c r="Z16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AA16" s="143">
+      <c r="AA16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB16" s="143">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AB16" s="146">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AC16" s="172">
+      <c r="AD16" s="172">
         <f t="shared" si="2"/>
-        <v>94.444444444444443</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" thickBot="1">
+        <v>94.736842105263165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16524,20 +16551,23 @@
       <c r="Z17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA17" s="143">
+      <c r="AA17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AB17" s="146">
+        <v>17</v>
+      </c>
+      <c r="AC17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC17" s="156">
+      <c r="AD17" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" thickBot="1">
+        <v>89.473684210526315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16606,20 +16636,23 @@
       <c r="Z18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA18" s="143">
+      <c r="AA18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB18" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AB18" s="146">
+        <v>17</v>
+      </c>
+      <c r="AC18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC18" s="156">
+      <c r="AD18" s="156">
         <f t="shared" si="2"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" thickBot="1">
+        <v>89.473684210526315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16692,20 +16725,23 @@
       <c r="Z19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA19" s="143">
+      <c r="AA19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB19" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB19" s="146">
+        <v>19</v>
+      </c>
+      <c r="AC19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="156">
+      <c r="AD19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:30" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16742,20 +16778,21 @@
       <c r="X20" s="143"/>
       <c r="Y20" s="143"/>
       <c r="Z20" s="143"/>
-      <c r="AA20" s="143">
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="146">
+      <c r="AC20" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC20" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16816,20 +16853,23 @@
         <v>104</v>
       </c>
       <c r="Z21" s="143"/>
-      <c r="AA21" s="143">
+      <c r="AA21" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB21" s="143">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AB21" s="146">
+        <v>13</v>
+      </c>
+      <c r="AC21" s="146">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AC21" s="156">
+      <c r="AD21" s="156">
         <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" thickBot="1">
+        <v>68.421052631578945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16866,20 +16906,21 @@
       <c r="X22" s="143"/>
       <c r="Y22" s="143"/>
       <c r="Z22" s="143"/>
-      <c r="AA22" s="143">
+      <c r="AA22" s="143"/>
+      <c r="AB22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB22" s="146">
+      <c r="AC22" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC22" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" thickBot="1">
+    <row r="23" spans="1:30" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16946,20 +16987,23 @@
       <c r="Z23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA23" s="143">
+      <c r="AA23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB23" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AB23" s="146">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AC23" s="156">
+      <c r="AD23" s="156">
         <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" thickBot="1">
+        <v>84.21052631578948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -17010,20 +17054,21 @@
       <c r="X24" s="143"/>
       <c r="Y24" s="143"/>
       <c r="Z24" s="143"/>
-      <c r="AA24" s="143">
+      <c r="AA24" s="143"/>
+      <c r="AB24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AB24" s="146">
+      <c r="AC24" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AC24" s="156">
+        <v>12</v>
+      </c>
+      <c r="AD24" s="156">
         <f t="shared" si="2"/>
-        <v>38.888888888888886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" thickBot="1">
+        <v>36.842105263157897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17062,20 +17107,21 @@
       <c r="X25" s="143"/>
       <c r="Y25" s="143"/>
       <c r="Z25" s="143"/>
-      <c r="AA25" s="143">
+      <c r="AA25" s="143"/>
+      <c r="AB25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB25" s="146">
+      <c r="AC25" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AC25" s="156">
+        <v>18</v>
+      </c>
+      <c r="AD25" s="156">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" thickBot="1">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17114,20 +17160,21 @@
       <c r="X26" s="143"/>
       <c r="Y26" s="143"/>
       <c r="Z26" s="143"/>
-      <c r="AA26" s="143">
+      <c r="AA26" s="143"/>
+      <c r="AB26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="146">
+      <c r="AC26" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AC26" s="156">
+        <v>18</v>
+      </c>
+      <c r="AD26" s="156">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" thickBot="1">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17176,20 +17223,21 @@
       <c r="X27" s="143"/>
       <c r="Y27" s="143"/>
       <c r="Z27" s="143"/>
-      <c r="AA27" s="143">
+      <c r="AA27" s="143"/>
+      <c r="AB27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB27" s="146">
+      <c r="AC27" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AC27" s="156">
+        <v>13</v>
+      </c>
+      <c r="AD27" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="15.75" thickBot="1">
+        <v>31.578947368421051</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17246,20 +17294,23 @@
       <c r="Z28" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA28" s="143">
+      <c r="AA28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB28" s="143">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AB28" s="146">
+        <v>11</v>
+      </c>
+      <c r="AC28" s="146">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AC28" s="156">
+      <c r="AD28" s="156">
         <f t="shared" si="2"/>
-        <v>55.555555555555557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" thickBot="1">
+        <v>57.89473684210526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17302,20 +17353,21 @@
       <c r="X29" s="143"/>
       <c r="Y29" s="143"/>
       <c r="Z29" s="143"/>
-      <c r="AA29" s="143">
+      <c r="AA29" s="143"/>
+      <c r="AB29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AB29" s="146">
+      <c r="AC29" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AC29" s="156">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="156">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" thickBot="1">
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17388,20 +17440,23 @@
       <c r="Z30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA30" s="143">
+      <c r="AA30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB30" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB30" s="146">
+        <v>19</v>
+      </c>
+      <c r="AC30" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="156">
+      <c r="AD30" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" thickBot="1">
+    <row r="31" spans="1:30" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17438,20 +17493,21 @@
       <c r="X31" s="143"/>
       <c r="Y31" s="143"/>
       <c r="Z31" s="143"/>
-      <c r="AA31" s="143">
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="146">
+      <c r="AC31" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC31" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" thickBot="1">
+    <row r="32" spans="1:30" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17496,20 +17552,21 @@
       <c r="X32" s="143"/>
       <c r="Y32" s="143"/>
       <c r="Z32" s="143"/>
-      <c r="AA32" s="143">
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AB32" s="146">
+      <c r="AC32" s="146">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AC32" s="156">
+        <v>15</v>
+      </c>
+      <c r="AD32" s="156">
         <f t="shared" si="2"/>
-        <v>22.222222222222221</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" thickBot="1">
+        <v>21.05263157894737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17558,20 +17615,21 @@
       <c r="X33" s="143"/>
       <c r="Y33" s="143"/>
       <c r="Z33" s="143"/>
-      <c r="AA33" s="143">
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB33" s="146">
+      <c r="AC33" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AC33" s="156">
+        <v>13</v>
+      </c>
+      <c r="AD33" s="156">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" ht="15.75" thickBot="1">
+        <v>31.578947368421051</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17636,20 +17694,23 @@
       <c r="Z34" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AA34" s="143">
+      <c r="AA34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB34" s="143">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="AB34" s="146">
+        <v>15</v>
+      </c>
+      <c r="AC34" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AC34" s="156">
+      <c r="AD34" s="156">
         <f t="shared" si="2"/>
-        <v>77.777777777777771</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="15.75" thickBot="1">
+        <v>78.94736842105263</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17686,20 +17747,21 @@
       <c r="X35" s="143"/>
       <c r="Y35" s="143"/>
       <c r="Z35" s="143"/>
-      <c r="AA35" s="143">
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="146">
+      <c r="AC35" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC35" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" thickBot="1">
+    <row r="36" spans="1:30" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17732,20 +17794,21 @@
       <c r="X36" s="143"/>
       <c r="Y36" s="143"/>
       <c r="Z36" s="143"/>
-      <c r="AA36" s="143">
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="146">
+      <c r="AC36" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AC36" s="156">
+        <v>19</v>
+      </c>
+      <c r="AD36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1">
+    <row r="37" spans="1:30" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17794,20 +17857,21 @@
       <c r="X37" s="143"/>
       <c r="Y37" s="143"/>
       <c r="Z37" s="143"/>
-      <c r="AA37" s="143">
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AB37" s="146">
+      <c r="AC37" s="146">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AC37" s="156">
+        <v>12</v>
+      </c>
+      <c r="AD37" s="156">
         <f t="shared" si="2"/>
-        <v>38.888888888888886</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" ht="15.75" thickBot="1">
+        <v>36.842105263157897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17844,20 +17908,21 @@
       <c r="X38" s="143"/>
       <c r="Y38" s="143"/>
       <c r="Z38" s="143"/>
-      <c r="AA38" s="143">
+      <c r="AA38" s="143"/>
+      <c r="AB38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AB38" s="146">
+      <c r="AC38" s="146">
         <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AC38" s="156">
+        <v>18</v>
+      </c>
+      <c r="AD38" s="156">
         <f t="shared" si="2"/>
-        <v>5.5555555555555554</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="15">
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -17934,23 +17999,26 @@
       <c r="Z39" s="149">
         <v>11</v>
       </c>
-      <c r="AA39" s="149"/>
-      <c r="AB39" s="150"/>
-      <c r="AC39" s="157">
-        <f>AVERAGE(AC10:AC38)</f>
-        <v>44.444444444444443</v>
+      <c r="AA39" s="149">
+        <v>12</v>
+      </c>
+      <c r="AB39" s="149"/>
+      <c r="AC39" s="150"/>
+      <c r="AD39" s="157">
+        <f>AVERAGE(AD10:AD38)</f>
+        <v>44.283121597096191</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AC39"/>
+  <autoFilter ref="A9:AD39"/>
   <mergeCells count="7">
-    <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="AA6:AA9"/>
     <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="AC6:AC9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>

--- a/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
+++ b/attendance_oct_nov_jan_nsu_brac_aiub/NSU_ATTENDANCE/attendance_nsu_batch3_jan_feb_16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="146" firstSheet="4" activeTab="4"/>
@@ -15,9 +15,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'fine arts'!$A$9:$Q$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$AD$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">jan_feb_16!$A$9:$AE$39</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="L7" authorId="0" shapeId="0">
+    <comment ref="L7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0" shapeId="0">
+    <comment ref="B23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="584">
   <si>
     <t>S No</t>
   </si>
@@ -1853,6 +1853,9 @@
   </si>
   <si>
     <t>mysql/wp</t>
+  </si>
+  <si>
+    <t>laravel</t>
   </si>
 </sst>
 </file>
@@ -3505,7 +3508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3540,7 +3543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -15589,12 +15592,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="AA39" sqref="AA39"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -15611,15 +15614,15 @@
     <col min="10" max="10" width="24.28515625" style="77" customWidth="1"/>
     <col min="11" max="13" width="10.42578125" style="77" customWidth="1"/>
     <col min="14" max="14" width="15" style="77" customWidth="1"/>
-    <col min="15" max="27" width="11.28515625" style="77" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" style="77" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="77" customWidth="1"/>
-    <col min="30" max="30" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="77"/>
+    <col min="15" max="28" width="11.28515625" style="77" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" style="77" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="77" customWidth="1"/>
+    <col min="31" max="31" width="9.42578125" style="133" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:30" ht="13.5" thickBot="1">
+    <row r="1" spans="1:31" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:31" ht="13.5" thickBot="1">
       <c r="B2" s="219" t="s">
         <v>17</v>
       </c>
@@ -15627,29 +15630,29 @@
       <c r="D2" s="221"/>
       <c r="E2" s="134"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="B3" s="222" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="223"/>
       <c r="D3" s="135">
-        <f>SUM(I8:AA8)</f>
-        <v>57</v>
+        <f>SUM(I8:AB8)</f>
+        <v>60</v>
       </c>
       <c r="E3" s="136"/>
     </row>
-    <row r="4" spans="1:30" ht="13.5" thickBot="1">
+    <row r="4" spans="1:31" ht="13.5" thickBot="1">
       <c r="B4" s="224" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="225"/>
       <c r="D4" s="137">
-        <f>AD39</f>
-        <v>44.283121597096191</v>
+        <f>AE39</f>
+        <v>43.96551724137931</v>
       </c>
       <c r="E4" s="138"/>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:31" ht="15">
       <c r="A6" s="226" t="s">
         <v>520</v>
       </c>
@@ -15719,17 +15722,20 @@
       <c r="AA6" s="139">
         <v>42447</v>
       </c>
-      <c r="AB6" s="227" t="s">
+      <c r="AB6" s="139">
+        <v>42454</v>
+      </c>
+      <c r="AC6" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="AC6" s="227" t="s">
+      <c r="AD6" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="218" t="s">
+      <c r="AE6" s="218" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="226"/>
       <c r="B7" s="226"/>
       <c r="C7" s="226"/>
@@ -15799,11 +15805,14 @@
       <c r="AA7" s="142" t="s">
         <v>582</v>
       </c>
-      <c r="AB7" s="227"/>
+      <c r="AB7" s="142" t="s">
+        <v>583</v>
+      </c>
       <c r="AC7" s="227"/>
-      <c r="AD7" s="218"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AD7" s="227"/>
+      <c r="AE7" s="218"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="226"/>
@@ -15873,11 +15882,14 @@
       <c r="AA8" s="159">
         <v>3</v>
       </c>
-      <c r="AB8" s="227"/>
+      <c r="AB8" s="159">
+        <v>3</v>
+      </c>
       <c r="AC8" s="227"/>
-      <c r="AD8" s="218"/>
-    </row>
-    <row r="9" spans="1:30" ht="13.5" thickBot="1">
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="218"/>
+    </row>
+    <row r="9" spans="1:31" ht="13.5" thickBot="1">
       <c r="A9" s="141" t="s">
         <v>0</v>
       </c>
@@ -15959,11 +15971,14 @@
       <c r="AA9" s="141" t="s">
         <v>519</v>
       </c>
-      <c r="AB9" s="227"/>
+      <c r="AB9" s="141" t="s">
+        <v>519</v>
+      </c>
       <c r="AC9" s="227"/>
-      <c r="AD9" s="218"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1">
+      <c r="AD9" s="227"/>
+      <c r="AE9" s="218"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" thickBot="1">
       <c r="A10" s="144">
         <v>1</v>
       </c>
@@ -16021,20 +16036,21 @@
       <c r="Y10" s="143"/>
       <c r="Z10" s="143"/>
       <c r="AA10" s="143"/>
-      <c r="AB10" s="143">
-        <f>COUNTIF(I10:AA10,"P")</f>
+      <c r="AB10" s="143"/>
+      <c r="AC10" s="143">
+        <f>COUNTIF(I10:AB10,"P")</f>
         <v>10</v>
       </c>
-      <c r="AC10" s="146">
-        <f>COUNTBLANK(I10:AA10)</f>
-        <v>9</v>
-      </c>
-      <c r="AD10" s="156">
-        <f>AB10*100/SUM(AB10:AC10)</f>
-        <v>52.631578947368418</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" thickBot="1">
+      <c r="AD10" s="146">
+        <f>COUNTBLANK(I10:AB10)</f>
+        <v>10</v>
+      </c>
+      <c r="AE10" s="156">
+        <f>AC10*100/SUM(AC10:AD10)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="15.75" thickBot="1">
       <c r="A11" s="144">
         <v>2</v>
       </c>
@@ -16106,20 +16122,23 @@
       <c r="AA11" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB11" s="143">
-        <f t="shared" ref="AB11:AB38" si="0">COUNTIF(I11:AA11,"P")</f>
-        <v>17</v>
-      </c>
-      <c r="AC11" s="146">
-        <f t="shared" ref="AC11:AC38" si="1">COUNTBLANK(I11:AA11)</f>
+      <c r="AB11" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC11" s="143">
+        <f t="shared" ref="AC11:AC38" si="0">COUNTIF(I11:AB11,"P")</f>
+        <v>18</v>
+      </c>
+      <c r="AD11" s="146">
+        <f t="shared" ref="AD11:AD38" si="1">COUNTBLANK(I11:AB11)</f>
         <v>2</v>
       </c>
-      <c r="AD11" s="156">
-        <f>AB11*100/SUM(AB11:AC11)</f>
-        <v>89.473684210526315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" thickBot="1">
+      <c r="AE11" s="156">
+        <f>AC11*100/SUM(AC11:AD11)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="15.75" thickBot="1">
       <c r="A12" s="144">
         <v>3</v>
       </c>
@@ -16195,20 +16214,23 @@
       <c r="AA12" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB12" s="143">
+      <c r="AB12" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC12" s="143">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AC12" s="146">
+        <v>20</v>
+      </c>
+      <c r="AD12" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="156">
-        <f t="shared" ref="AD12:AD38" si="2">AB12*100/SUM(AB12:AC12)</f>
+      <c r="AE12" s="156">
+        <f t="shared" ref="AE12:AE38" si="2">AC12*100/SUM(AC12:AD12)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" thickBot="1">
+    <row r="13" spans="1:31" ht="15.75" thickBot="1">
       <c r="A13" s="144">
         <v>4</v>
       </c>
@@ -16278,20 +16300,23 @@
       <c r="AA13" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB13" s="143">
+      <c r="AB13" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AC13" s="146">
+        <v>17</v>
+      </c>
+      <c r="AD13" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AD13" s="156">
+      <c r="AE13" s="156">
         <f t="shared" si="2"/>
-        <v>84.21052631578948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1">
       <c r="A14" s="144">
         <v>5</v>
       </c>
@@ -16331,20 +16356,21 @@
       <c r="Y14" s="143"/>
       <c r="Z14" s="143"/>
       <c r="AA14" s="143"/>
-      <c r="AB14" s="143">
+      <c r="AB14" s="143"/>
+      <c r="AC14" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC14" s="146">
+      <c r="AD14" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AD14" s="156">
+        <v>19</v>
+      </c>
+      <c r="AE14" s="156">
         <f t="shared" si="2"/>
-        <v>5.2631578947368425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="15.75" thickBot="1">
       <c r="A15" s="144">
         <v>6</v>
       </c>
@@ -16382,20 +16408,21 @@
       <c r="Y15" s="143"/>
       <c r="Z15" s="143"/>
       <c r="AA15" s="143"/>
-      <c r="AB15" s="143">
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="146">
+      <c r="AD15" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD15" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" s="173" customFormat="1" ht="15.75" thickBot="1">
+    <row r="16" spans="1:31" s="173" customFormat="1" ht="15.75" thickBot="1">
       <c r="A16" s="168">
         <v>7</v>
       </c>
@@ -16469,20 +16496,23 @@
       <c r="AA16" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="AB16" s="143">
+      <c r="AB16" s="171" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC16" s="143">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AC16" s="146">
+        <v>19</v>
+      </c>
+      <c r="AD16" s="146">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AD16" s="172">
+      <c r="AE16" s="172">
         <f t="shared" si="2"/>
-        <v>94.736842105263165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" thickBot="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="15.75" thickBot="1">
       <c r="A17" s="144">
         <v>8</v>
       </c>
@@ -16554,20 +16584,23 @@
       <c r="AA17" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB17" s="143">
+      <c r="AB17" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC17" s="143">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AC17" s="146">
+        <v>18</v>
+      </c>
+      <c r="AD17" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD17" s="156">
+      <c r="AE17" s="156">
         <f t="shared" si="2"/>
-        <v>89.473684210526315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="15.75" thickBot="1">
       <c r="A18" s="144">
         <v>9</v>
       </c>
@@ -16639,20 +16672,23 @@
       <c r="AA18" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB18" s="143">
+      <c r="AB18" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" s="143">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="AC18" s="146">
+        <v>18</v>
+      </c>
+      <c r="AD18" s="146">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD18" s="156">
+      <c r="AE18" s="156">
         <f t="shared" si="2"/>
-        <v>89.473684210526315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="15.75" thickBot="1">
       <c r="A19" s="144">
         <v>10</v>
       </c>
@@ -16728,20 +16764,23 @@
       <c r="AA19" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB19" s="143">
+      <c r="AB19" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" s="143">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AC19" s="146">
+        <v>20</v>
+      </c>
+      <c r="AD19" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="156">
+      <c r="AE19" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:30" s="147" customFormat="1" ht="15.75" thickBot="1">
+    <row r="20" spans="1:31" s="147" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="144">
         <v>11</v>
       </c>
@@ -16779,20 +16818,21 @@
       <c r="Y20" s="143"/>
       <c r="Z20" s="143"/>
       <c r="AA20" s="143"/>
-      <c r="AB20" s="143">
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="146">
+      <c r="AD20" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD20" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1">
+    <row r="21" spans="1:31" ht="15.75" thickBot="1">
       <c r="A21" s="144">
         <v>12</v>
       </c>
@@ -16856,20 +16896,21 @@
       <c r="AA21" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB21" s="143">
+      <c r="AB21" s="143"/>
+      <c r="AC21" s="143">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AC21" s="146">
+      <c r="AD21" s="146">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD21" s="156">
+        <v>7</v>
+      </c>
+      <c r="AE21" s="156">
         <f t="shared" si="2"/>
-        <v>68.421052631578945</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" thickBot="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" thickBot="1">
       <c r="A22" s="144">
         <v>13</v>
       </c>
@@ -16907,20 +16948,21 @@
       <c r="Y22" s="143"/>
       <c r="Z22" s="143"/>
       <c r="AA22" s="143"/>
-      <c r="AB22" s="143">
+      <c r="AB22" s="143"/>
+      <c r="AC22" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="146">
+      <c r="AD22" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD22" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE22" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1">
+    <row r="23" spans="1:31" ht="15.75" thickBot="1">
       <c r="A23" s="144">
         <v>14</v>
       </c>
@@ -16990,20 +17032,23 @@
       <c r="AA23" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB23" s="143">
+      <c r="AB23" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC23" s="143">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="AC23" s="146">
+        <v>17</v>
+      </c>
+      <c r="AD23" s="146">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AD23" s="156">
+      <c r="AE23" s="156">
         <f t="shared" si="2"/>
-        <v>84.21052631578948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" thickBot="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1">
       <c r="A24" s="144">
         <v>15</v>
       </c>
@@ -17055,20 +17100,21 @@
       <c r="Y24" s="143"/>
       <c r="Z24" s="143"/>
       <c r="AA24" s="143"/>
-      <c r="AB24" s="143">
+      <c r="AB24" s="143"/>
+      <c r="AC24" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AC24" s="146">
+      <c r="AD24" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AD24" s="156">
+        <v>13</v>
+      </c>
+      <c r="AE24" s="156">
         <f t="shared" si="2"/>
-        <v>36.842105263157897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="15.75" thickBot="1">
       <c r="A25" s="144">
         <v>16</v>
       </c>
@@ -17108,20 +17154,21 @@
       <c r="Y25" s="143"/>
       <c r="Z25" s="143"/>
       <c r="AA25" s="143"/>
-      <c r="AB25" s="143">
+      <c r="AB25" s="143"/>
+      <c r="AC25" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC25" s="146">
+      <c r="AD25" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AD25" s="156">
+        <v>19</v>
+      </c>
+      <c r="AE25" s="156">
         <f t="shared" si="2"/>
-        <v>5.2631578947368425</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" thickBot="1">
       <c r="A26" s="144">
         <v>17</v>
       </c>
@@ -17161,20 +17208,21 @@
       <c r="Y26" s="143"/>
       <c r="Z26" s="143"/>
       <c r="AA26" s="143"/>
-      <c r="AB26" s="143">
+      <c r="AB26" s="143"/>
+      <c r="AC26" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC26" s="146">
+      <c r="AD26" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AD26" s="156">
+        <v>19</v>
+      </c>
+      <c r="AE26" s="156">
         <f t="shared" si="2"/>
-        <v>5.2631578947368425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1">
       <c r="A27" s="144">
         <v>18</v>
       </c>
@@ -17224,20 +17272,21 @@
       <c r="Y27" s="143"/>
       <c r="Z27" s="143"/>
       <c r="AA27" s="143"/>
-      <c r="AB27" s="143">
+      <c r="AB27" s="143"/>
+      <c r="AC27" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AC27" s="146">
+      <c r="AD27" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AD27" s="156">
+        <v>14</v>
+      </c>
+      <c r="AE27" s="156">
         <f t="shared" si="2"/>
-        <v>31.578947368421051</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="15.75" thickBot="1">
       <c r="A28" s="144">
         <v>19</v>
       </c>
@@ -17297,20 +17346,23 @@
       <c r="AA28" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB28" s="143">
+      <c r="AB28" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC28" s="143">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AC28" s="146">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="146">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="AD28" s="156">
+      <c r="AE28" s="156">
         <f t="shared" si="2"/>
-        <v>57.89473684210526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="15.75" thickBot="1">
       <c r="A29" s="144">
         <v>20</v>
       </c>
@@ -17354,20 +17406,21 @@
       <c r="Y29" s="143"/>
       <c r="Z29" s="143"/>
       <c r="AA29" s="143"/>
-      <c r="AB29" s="143">
+      <c r="AB29" s="143"/>
+      <c r="AC29" s="143">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="AC29" s="146">
+      <c r="AD29" s="146">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="AD29" s="156">
+        <v>17</v>
+      </c>
+      <c r="AE29" s="156">
         <f t="shared" si="2"/>
-        <v>15.789473684210526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" ht="15.75" thickBot="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" thickBot="1">
       <c r="A30" s="144">
         <v>21</v>
       </c>
@@ -17443,20 +17496,23 @@
       <c r="AA30" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB30" s="143">
+      <c r="AB30" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC30" s="143">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="AC30" s="146">
+        <v>20</v>
+      </c>
+      <c r="AD30" s="146">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="156">
+      <c r="AE30" s="156">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1">
+    <row r="31" spans="1:31" ht="15.75" thickBot="1">
       <c r="A31" s="144">
         <v>22</v>
       </c>
@@ -17494,20 +17550,21 @@
       <c r="Y31" s="143"/>
       <c r="Z31" s="143"/>
       <c r="AA31" s="143"/>
-      <c r="AB31" s="143">
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="146">
+      <c r="AD31" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD31" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE31" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15.75" thickBot="1">
+    <row r="32" spans="1:31" ht="15.75" thickBot="1">
       <c r="A32" s="144">
         <v>23</v>
       </c>
@@ -17553,20 +17610,21 @@
       <c r="Y32" s="143"/>
       <c r="Z32" s="143"/>
       <c r="AA32" s="143"/>
-      <c r="AB32" s="143">
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="AC32" s="146">
+      <c r="AD32" s="146">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AD32" s="156">
+        <v>16</v>
+      </c>
+      <c r="AE32" s="156">
         <f t="shared" si="2"/>
-        <v>21.05263157894737</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="15.75" thickBot="1">
       <c r="A33" s="144">
         <v>24</v>
       </c>
@@ -17616,20 +17674,21 @@
       <c r="Y33" s="143"/>
       <c r="Z33" s="143"/>
       <c r="AA33" s="143"/>
-      <c r="AB33" s="143">
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AC33" s="146">
+      <c r="AD33" s="146">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="AD33" s="156">
+        <v>14</v>
+      </c>
+      <c r="AE33" s="156">
         <f t="shared" si="2"/>
-        <v>31.578947368421051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="15.75" thickBot="1">
       <c r="A34" s="144">
         <v>25</v>
       </c>
@@ -17697,20 +17756,23 @@
       <c r="AA34" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="AB34" s="143">
+      <c r="AB34" s="143" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC34" s="143">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AC34" s="146">
+        <v>16</v>
+      </c>
+      <c r="AD34" s="146">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AD34" s="156">
+      <c r="AE34" s="156">
         <f t="shared" si="2"/>
-        <v>78.94736842105263</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1">
       <c r="A35" s="144">
         <v>26</v>
       </c>
@@ -17748,20 +17810,21 @@
       <c r="Y35" s="143"/>
       <c r="Z35" s="143"/>
       <c r="AA35" s="143"/>
-      <c r="AB35" s="143">
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="146">
+      <c r="AD35" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD35" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE35" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" thickBot="1">
+    <row r="36" spans="1:31" ht="15.75" thickBot="1">
       <c r="A36" s="144">
         <v>27</v>
       </c>
@@ -17795,20 +17858,21 @@
       <c r="Y36" s="143"/>
       <c r="Z36" s="143"/>
       <c r="AA36" s="143"/>
-      <c r="AB36" s="143">
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="146">
+      <c r="AD36" s="146">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AD36" s="156">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" thickBot="1">
+    <row r="37" spans="1:31" ht="15.75" thickBot="1">
       <c r="A37" s="144">
         <v>28</v>
       </c>
@@ -17858,20 +17922,21 @@
       <c r="Y37" s="143"/>
       <c r="Z37" s="143"/>
       <c r="AA37" s="143"/>
-      <c r="AB37" s="143">
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="143">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="AC37" s="146">
+      <c r="AD37" s="146">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="AD37" s="156">
+        <v>13</v>
+      </c>
+      <c r="AE37" s="156">
         <f t="shared" si="2"/>
-        <v>36.842105263157897</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" thickBot="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="15.75" thickBot="1">
       <c r="A38" s="144">
         <v>29</v>
       </c>
@@ -17909,20 +17974,21 @@
       <c r="Y38" s="143"/>
       <c r="Z38" s="143"/>
       <c r="AA38" s="143"/>
-      <c r="AB38" s="143">
+      <c r="AB38" s="143"/>
+      <c r="AC38" s="143">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AC38" s="146">
+      <c r="AD38" s="146">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AD38" s="156">
+        <v>19</v>
+      </c>
+      <c r="AE38" s="156">
         <f t="shared" si="2"/>
-        <v>5.2631578947368425</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" ht="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="15">
       <c r="A39" s="144">
         <v>38</v>
       </c>
@@ -18002,23 +18068,26 @@
       <c r="AA39" s="149">
         <v>12</v>
       </c>
-      <c r="AB39" s="149"/>
-      <c r="AC39" s="150"/>
-      <c r="AD39" s="157">
-        <f>AVERAGE(AD10:AD38)</f>
-        <v>44.283121597096191</v>
+      <c r="AB39" s="149">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="149"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="157">
+        <f>AVERAGE(AE10:AE38)</f>
+        <v>43.96551724137931</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AD39"/>
+  <autoFilter ref="A9:AE39"/>
   <mergeCells count="7">
-    <mergeCell ref="AD6:AD9"/>
+    <mergeCell ref="AE6:AE9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A6:E8"/>
-    <mergeCell ref="AB6:AB9"/>
     <mergeCell ref="AC6:AC9"/>
+    <mergeCell ref="AD6:AD9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
